--- a/TP1/Trafico Red.xlsx
+++ b/TP1/Trafico Red.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scrimaglia/Documents/DataMac/Documents/UTN/UTN2024/SIM/TP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605E09B5-A1D3-2547-9429-AD2A2689954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52382AB3-224F-9C47-BDFB-DBAF382D4272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35620" yWindow="1960" windowWidth="28040" windowHeight="16940" xr2:uid="{6A504F70-4B97-FC49-A4C8-A9404FF23F39}"/>
+    <workbookView xWindow="-35640" yWindow="1960" windowWidth="28040" windowHeight="16940" xr2:uid="{6A504F70-4B97-FC49-A4C8-A9404FF23F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -575,13 +575,13 @@
     <t>Servicio</t>
   </si>
   <si>
-    <t>Nro de Bytes transferidos en la conexión (5,6)</t>
-  </si>
-  <si>
     <t>Nro de conexiones a un mismo host en los ultimos 2 sgs. (23)</t>
   </si>
   <si>
     <t>Nro de conexiones a un mismo servicio (33)</t>
+  </si>
+  <si>
+    <t>Nro de Bytes transferidos en la conexiónes (5,6)</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:AA296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,13 +1038,13 @@
         <v>159</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="Q4" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">

--- a/TP1/Trafico Red.xlsx
+++ b/TP1/Trafico Red.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scrimaglia/Documents/DataMac/Documents/UTN/UTN2024/SIM/TP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52382AB3-224F-9C47-BDFB-DBAF382D4272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8CE9A0-5002-3244-A103-23B654C2EDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35640" yWindow="1960" windowWidth="28040" windowHeight="16940" xr2:uid="{6A504F70-4B97-FC49-A4C8-A9404FF23F39}"/>
   </bookViews>
@@ -581,7 +581,7 @@
     <t>Nro de conexiones a un mismo servicio (33)</t>
   </si>
   <si>
-    <t>Nro de Bytes transferidos en la conexiónes (5,6)</t>
+    <t>Nro de Bytes transferidos en las conexiónes (5,6)</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:AA296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/TP1/Trafico Red.xlsx
+++ b/TP1/Trafico Red.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scrimaglia/Documents/DataMac/Documents/UTN/UTN2024/SIM/TP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8CE9A0-5002-3244-A103-23B654C2EDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B4DA8-CB1A-9849-BF40-04706F1A9C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35640" yWindow="1960" windowWidth="28040" windowHeight="16940" xr2:uid="{6A504F70-4B97-FC49-A4C8-A9404FF23F39}"/>
   </bookViews>
@@ -575,20 +575,20 @@
     <t>Servicio</t>
   </si>
   <si>
-    <t>Nro de conexiones a un mismo host en los ultimos 2 sgs. (23)</t>
-  </si>
-  <si>
     <t>Nro de conexiones a un mismo servicio (33)</t>
   </si>
   <si>
     <t>Nro de Bytes transferidos en las conexiónes (5,6)</t>
+  </si>
+  <si>
+    <t>Nro de conexiones a un mismo host en los últimos 2 sgs. (23)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -606,6 +606,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -650,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -661,23 +669,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,7 +1011,7 @@
   <dimension ref="A1:AA296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,11 +1022,11 @@
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="7" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" style="5" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="5" customWidth="1"/>
     <col min="18" max="18" width="5.6640625" customWidth="1"/>
     <col min="19" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -1031,21 +1042,42 @@
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:27" s="4" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1063,11 +1095,11 @@
       <c r="E5">
         <v>2425</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f>+D5+E5</f>
         <v>2543</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="H5">
@@ -1097,7 +1129,7 @@
       <c r="P5">
         <v>26</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>10</v>
       </c>
       <c r="R5" s="2" t="s">
@@ -1147,11 +1179,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f t="shared" ref="F6:F69" si="0">+D6+E6</f>
         <v>44</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>4</v>
       </c>
       <c r="H6">
@@ -1181,7 +1213,7 @@
       <c r="P6">
         <v>255</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>254</v>
       </c>
       <c r="R6" s="2" t="s">
@@ -1231,11 +1263,11 @@
       <c r="E7">
         <v>44</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>1</v>
       </c>
       <c r="H7">
@@ -1265,7 +1297,7 @@
       <c r="P7">
         <v>255</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <v>79</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -1315,11 +1347,11 @@
       <c r="E8">
         <v>55</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>511.00000000000006</v>
       </c>
       <c r="H8">
@@ -1349,7 +1381,7 @@
       <c r="P8">
         <v>255</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>255</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -1399,11 +1431,11 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>1</v>
       </c>
       <c r="H9">
@@ -1433,7 +1465,7 @@
       <c r="P9">
         <v>16</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="s">
@@ -1483,11 +1515,11 @@
       <c r="E10">
         <v>8314</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>62854</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>2</v>
       </c>
       <c r="H10">
@@ -1517,7 +1549,7 @@
       <c r="P10">
         <v>255</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <v>229</v>
       </c>
       <c r="R10" s="2" t="s">
@@ -1567,11 +1599,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>227.99999999999997</v>
       </c>
       <c r="H11">
@@ -1601,7 +1633,7 @@
       <c r="P11">
         <v>255</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>9</v>
       </c>
       <c r="R11" s="2" t="s">
@@ -1651,11 +1683,11 @@
       <c r="E12">
         <v>44</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>1</v>
       </c>
       <c r="H12">
@@ -1685,7 +1717,7 @@
       <c r="P12">
         <v>255</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>165</v>
       </c>
       <c r="R12" s="2" t="s">
@@ -1735,11 +1767,11 @@
       <c r="E13">
         <v>52</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <v>294</v>
       </c>
       <c r="H13">
@@ -1769,7 +1801,7 @@
       <c r="P13">
         <v>255</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <v>255</v>
       </c>
       <c r="R13" s="2" t="s">
@@ -1819,11 +1851,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <v>2</v>
       </c>
       <c r="H14">
@@ -1853,7 +1885,7 @@
       <c r="P14">
         <v>93</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <v>51</v>
       </c>
       <c r="R14" s="2" t="s">
@@ -1903,11 +1935,11 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>511.00000000000006</v>
       </c>
       <c r="H15">
@@ -1937,7 +1969,7 @@
       <c r="P15">
         <v>255</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="6">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="s">
@@ -1987,11 +2019,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <v>490.00000000000006</v>
       </c>
       <c r="H16">
@@ -2021,7 +2053,7 @@
       <c r="P16">
         <v>255</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="s">
@@ -2071,11 +2103,11 @@
       <c r="E17">
         <v>97</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <v>4</v>
       </c>
       <c r="H17">
@@ -2105,7 +2137,7 @@
       <c r="P17">
         <v>255</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>40</v>
       </c>
       <c r="R17" s="2" t="s">
@@ -2155,11 +2187,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <v>4</v>
       </c>
       <c r="H18">
@@ -2189,7 +2221,7 @@
       <c r="P18">
         <v>255</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="6">
         <v>254</v>
       </c>
       <c r="R18" s="2" t="s">
@@ -2239,11 +2271,11 @@
       <c r="E19">
         <v>44</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="8">
         <v>1</v>
       </c>
       <c r="H19">
@@ -2273,7 +2305,7 @@
       <c r="P19">
         <v>255</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="6">
         <v>115</v>
       </c>
       <c r="R19" s="2" t="s">
@@ -2323,11 +2355,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="8">
         <v>2</v>
       </c>
       <c r="H20">
@@ -2357,7 +2389,7 @@
       <c r="P20">
         <v>64</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="6">
         <v>59</v>
       </c>
       <c r="R20" s="2" t="s">
@@ -2407,11 +2439,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
         <v>94</v>
       </c>
       <c r="H21">
@@ -2441,7 +2473,7 @@
       <c r="P21">
         <v>255</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="6">
         <v>255</v>
       </c>
       <c r="R21" s="2" t="s">
@@ -2491,11 +2523,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <v>171</v>
       </c>
       <c r="H22">
@@ -2525,7 +2557,7 @@
       <c r="P22">
         <v>255</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="6">
         <v>15</v>
       </c>
       <c r="R22" s="2" t="s">
@@ -2575,11 +2607,11 @@
       <c r="E23">
         <v>44</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="8">
         <v>1</v>
       </c>
       <c r="H23">
@@ -2609,7 +2641,7 @@
       <c r="P23">
         <v>255</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="6">
         <v>146</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -2659,11 +2691,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="8">
         <v>78</v>
       </c>
       <c r="H24">
@@ -2693,7 +2725,7 @@
       <c r="P24">
         <v>255</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="6">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="s">
@@ -2743,11 +2775,11 @@
       <c r="E25">
         <v>44</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="8">
         <v>1</v>
       </c>
       <c r="H25">
@@ -2777,7 +2809,7 @@
       <c r="P25">
         <v>255</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="6">
         <v>158</v>
       </c>
       <c r="R25" s="2" t="s">
@@ -2827,11 +2859,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="8">
         <v>400</v>
       </c>
       <c r="H26">
@@ -2861,7 +2893,7 @@
       <c r="P26">
         <v>255</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="6">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="s">
@@ -2911,11 +2943,11 @@
       <c r="E27">
         <v>619</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="9">
         <f t="shared" si="0"/>
         <v>859</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>2</v>
       </c>
       <c r="H27">
@@ -2945,7 +2977,7 @@
       <c r="P27">
         <v>66</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="6">
         <v>11</v>
       </c>
       <c r="R27" s="2" t="s">
@@ -2995,11 +3027,11 @@
       <c r="E28">
         <v>93</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="9">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="8">
         <v>1</v>
       </c>
       <c r="H28">
@@ -3029,7 +3061,7 @@
       <c r="P28">
         <v>255</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="6">
         <v>214</v>
       </c>
       <c r="R28" s="2" t="s">
@@ -3079,11 +3111,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="8">
         <v>102</v>
       </c>
       <c r="H29">
@@ -3113,7 +3145,7 @@
       <c r="P29">
         <v>255</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="6">
         <v>255</v>
       </c>
       <c r="R29" s="2" t="s">
@@ -3163,11 +3195,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="8">
         <v>3</v>
       </c>
       <c r="H30">
@@ -3197,7 +3229,7 @@
       <c r="P30">
         <v>255</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="6">
         <v>252</v>
       </c>
       <c r="R30" s="2" t="s">
@@ -3247,11 +3279,11 @@
       <c r="E31">
         <v>8314</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="9">
         <f t="shared" si="0"/>
         <v>62854</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="8">
         <v>4</v>
       </c>
       <c r="H31">
@@ -3281,7 +3313,7 @@
       <c r="P31">
         <v>255</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="6">
         <v>255</v>
       </c>
       <c r="R31" s="2" t="s">
@@ -3331,11 +3363,11 @@
       <c r="E32">
         <v>593</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="9">
         <f t="shared" si="0"/>
         <v>749</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="8">
         <v>1</v>
       </c>
       <c r="H32">
@@ -3365,7 +3397,7 @@
       <c r="P32">
         <v>84</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="6">
         <v>46</v>
       </c>
       <c r="R32" s="2" t="s">
@@ -3415,11 +3447,11 @@
       <c r="E33">
         <v>43</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="9">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="8">
         <v>166</v>
       </c>
       <c r="H33">
@@ -3449,7 +3481,7 @@
       <c r="P33">
         <v>255</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="6">
         <v>239</v>
       </c>
       <c r="R33" s="2" t="s">
@@ -3499,11 +3531,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="8">
         <v>242</v>
       </c>
       <c r="H34">
@@ -3533,7 +3565,7 @@
       <c r="P34">
         <v>255</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="Q34" s="6">
         <v>6</v>
       </c>
       <c r="R34" s="2" t="s">
@@ -3583,11 +3615,11 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="8">
         <v>1</v>
       </c>
       <c r="H35">
@@ -3617,7 +3649,7 @@
       <c r="P35">
         <v>1</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="6">
         <v>48</v>
       </c>
       <c r="R35" s="2" t="s">
@@ -3667,11 +3699,11 @@
       <c r="E36">
         <v>93</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="9">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="8">
         <v>1</v>
       </c>
       <c r="H36">
@@ -3701,7 +3733,7 @@
       <c r="P36">
         <v>15</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q36" s="6">
         <v>16</v>
       </c>
       <c r="R36" s="2" t="s">
@@ -3751,11 +3783,11 @@
       <c r="E37">
         <v>44</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="9">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="8">
         <v>172</v>
       </c>
       <c r="H37">
@@ -3785,7 +3817,7 @@
       <c r="P37">
         <v>255</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="6">
         <v>255</v>
       </c>
       <c r="R37" s="2" t="s">
@@ -3835,11 +3867,11 @@
       <c r="E38">
         <v>146</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="9">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="8">
         <v>1</v>
       </c>
       <c r="H38">
@@ -3869,7 +3901,7 @@
       <c r="P38">
         <v>138</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="Q38" s="6">
         <v>137</v>
       </c>
       <c r="R38" s="2" t="s">
@@ -3919,11 +3951,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="9">
         <f t="shared" si="0"/>
         <v>1032</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="8">
         <v>366</v>
       </c>
       <c r="H39">
@@ -3953,7 +3985,7 @@
       <c r="P39">
         <v>255</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="6">
         <v>255</v>
       </c>
       <c r="R39" s="2" t="s">
@@ -4003,11 +4035,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="9">
         <f t="shared" si="0"/>
         <v>16787</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="8">
         <v>9</v>
       </c>
       <c r="H40">
@@ -4037,7 +4069,7 @@
       <c r="P40">
         <v>255</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="6">
         <v>19</v>
       </c>
       <c r="R40" s="2" t="s">
@@ -4087,11 +4119,11 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="8">
         <v>14.000000000000002</v>
       </c>
       <c r="H41">
@@ -4121,7 +4153,7 @@
       <c r="P41">
         <v>255</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="6">
         <v>63</v>
       </c>
       <c r="R41" s="2" t="s">
@@ -4171,11 +4203,11 @@
       <c r="E42">
         <v>44</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="8">
         <v>1</v>
       </c>
       <c r="H42">
@@ -4205,7 +4237,7 @@
       <c r="P42">
         <v>255</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="6">
         <v>112</v>
       </c>
       <c r="R42" s="2" t="s">
@@ -4255,11 +4287,11 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="8">
         <v>245.00000000000003</v>
       </c>
       <c r="H43">
@@ -4289,7 +4321,7 @@
       <c r="P43">
         <v>255</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="6">
         <v>5</v>
       </c>
       <c r="R43" s="2" t="s">
@@ -4339,11 +4371,11 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="8">
         <v>195</v>
       </c>
       <c r="H44">
@@ -4373,7 +4405,7 @@
       <c r="P44">
         <v>255</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="6">
         <v>17</v>
       </c>
       <c r="R44" s="2" t="s">
@@ -4423,11 +4455,11 @@
       <c r="E45">
         <v>83</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="9">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="8">
         <v>1</v>
       </c>
       <c r="H45">
@@ -4457,7 +4489,7 @@
       <c r="P45">
         <v>108</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="6">
         <v>192</v>
       </c>
       <c r="R45" s="2" t="s">
@@ -4507,11 +4539,11 @@
       <c r="E46">
         <v>8314</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="9">
         <f t="shared" si="0"/>
         <v>62854</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="8">
         <v>4</v>
       </c>
       <c r="H46">
@@ -4541,7 +4573,7 @@
       <c r="P46">
         <v>255</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="6">
         <v>255</v>
       </c>
       <c r="R46" s="2" t="s">
@@ -4591,11 +4623,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="9">
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="8">
         <v>385</v>
       </c>
       <c r="H47">
@@ -4625,7 +4657,7 @@
       <c r="P47">
         <v>255</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="6">
         <v>255</v>
       </c>
       <c r="R47" s="2" t="s">
@@ -4675,11 +4707,11 @@
       <c r="E48">
         <v>81</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="9">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="8">
         <v>353</v>
       </c>
       <c r="H48">
@@ -4709,7 +4741,7 @@
       <c r="P48">
         <v>255</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="6">
         <v>254</v>
       </c>
       <c r="R48" s="2" t="s">
@@ -4759,11 +4791,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="8">
         <v>275</v>
       </c>
       <c r="H49">
@@ -4793,7 +4825,7 @@
       <c r="P49">
         <v>255</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="6">
         <v>13</v>
       </c>
       <c r="R49" s="2" t="s">
@@ -4843,11 +4875,11 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="8">
         <v>274</v>
       </c>
       <c r="H50">
@@ -4877,7 +4909,7 @@
       <c r="P50">
         <v>255</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="Q50" s="6">
         <v>8</v>
       </c>
       <c r="R50" s="2" t="s">
@@ -4927,11 +4959,11 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="8">
         <v>236</v>
       </c>
       <c r="H51">
@@ -4961,7 +4993,7 @@
       <c r="P51">
         <v>255</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51" s="6">
         <v>17</v>
       </c>
       <c r="R51" s="2" t="s">
@@ -5011,11 +5043,11 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="8">
         <v>2</v>
       </c>
       <c r="H52">
@@ -5045,7 +5077,7 @@
       <c r="P52">
         <v>255</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="Q52" s="6">
         <v>254</v>
       </c>
       <c r="R52" s="2" t="s">
@@ -5095,11 +5127,11 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="8">
         <v>1</v>
       </c>
       <c r="H53">
@@ -5129,7 +5161,7 @@
       <c r="P53">
         <v>60</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="Q53" s="6">
         <v>86</v>
       </c>
       <c r="R53" s="2" t="s">
@@ -5179,11 +5211,11 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="8">
         <v>508</v>
       </c>
       <c r="H54">
@@ -5213,7 +5245,7 @@
       <c r="P54">
         <v>255</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="Q54" s="6">
         <v>1</v>
       </c>
       <c r="R54" s="2" t="s">
@@ -5263,11 +5295,11 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="9">
         <f t="shared" si="0"/>
         <v>1032</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="8">
         <v>21</v>
       </c>
       <c r="H55">
@@ -5297,7 +5329,7 @@
       <c r="P55">
         <v>255</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="Q55" s="6">
         <v>255</v>
       </c>
       <c r="R55" s="2" t="s">
@@ -5347,11 +5379,11 @@
       <c r="E56">
         <v>93</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="9">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="8">
         <v>1</v>
       </c>
       <c r="H56">
@@ -5381,7 +5413,7 @@
       <c r="P56">
         <v>255</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="Q56" s="6">
         <v>232</v>
       </c>
       <c r="R56" s="2" t="s">
@@ -5431,11 +5463,11 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="8">
         <v>19</v>
       </c>
       <c r="H57">
@@ -5465,7 +5497,7 @@
       <c r="P57">
         <v>255</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="6">
         <v>1</v>
       </c>
       <c r="R57" s="2" t="s">
@@ -5515,11 +5547,11 @@
       <c r="E58">
         <v>8314</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="9">
         <f t="shared" si="0"/>
         <v>62854</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="8">
         <v>5</v>
       </c>
       <c r="H58">
@@ -5549,7 +5581,7 @@
       <c r="P58">
         <v>255</v>
       </c>
-      <c r="Q58" s="7">
+      <c r="Q58" s="6">
         <v>238</v>
       </c>
       <c r="R58" s="2" t="s">
@@ -5599,11 +5631,11 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="9">
         <f t="shared" si="0"/>
         <v>2194619</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="8">
         <v>2</v>
       </c>
       <c r="H59">
@@ -5633,7 +5665,7 @@
       <c r="P59">
         <v>255</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="Q59" s="6">
         <v>125</v>
       </c>
       <c r="R59" s="2" t="s">
@@ -5683,11 +5715,11 @@
       <c r="E60">
         <v>36</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="8">
         <v>3</v>
       </c>
       <c r="H60">
@@ -5717,7 +5749,7 @@
       <c r="P60">
         <v>102</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="Q60" s="6">
         <v>51</v>
       </c>
       <c r="R60" s="2" t="s">
@@ -5767,11 +5799,11 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="9">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="8">
         <v>455</v>
       </c>
       <c r="H61">
@@ -5801,7 +5833,7 @@
       <c r="P61">
         <v>255</v>
       </c>
-      <c r="Q61" s="7">
+      <c r="Q61" s="6">
         <v>255</v>
       </c>
       <c r="R61" s="2" t="s">
@@ -5851,11 +5883,11 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="9">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="8">
         <v>21</v>
       </c>
       <c r="H62">
@@ -5885,7 +5917,7 @@
       <c r="P62">
         <v>255</v>
       </c>
-      <c r="Q62" s="7">
+      <c r="Q62" s="6">
         <v>255</v>
       </c>
       <c r="R62" s="2" t="s">
@@ -5935,11 +5967,11 @@
       <c r="E63">
         <v>174</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="9">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="8">
         <v>2</v>
       </c>
       <c r="H63">
@@ -5969,7 +6001,7 @@
       <c r="P63">
         <v>255</v>
       </c>
-      <c r="Q63" s="7">
+      <c r="Q63" s="6">
         <v>34</v>
       </c>
       <c r="R63" s="2" t="s">
@@ -6019,11 +6051,11 @@
       <c r="E64">
         <v>130</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="9">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="8">
         <v>1</v>
       </c>
       <c r="H64">
@@ -6053,7 +6085,7 @@
       <c r="P64">
         <v>148</v>
       </c>
-      <c r="Q64" s="7">
+      <c r="Q64" s="6">
         <v>4</v>
       </c>
       <c r="R64" s="2" t="s">
@@ -6103,11 +6135,11 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="8">
         <v>4</v>
       </c>
       <c r="H65">
@@ -6137,7 +6169,7 @@
       <c r="P65">
         <v>255</v>
       </c>
-      <c r="Q65" s="7">
+      <c r="Q65" s="6">
         <v>253</v>
       </c>
       <c r="R65" s="2" t="s">
@@ -6187,11 +6219,11 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="8">
         <v>1</v>
       </c>
       <c r="H66">
@@ -6221,7 +6253,7 @@
       <c r="P66">
         <v>4</v>
       </c>
-      <c r="Q66" s="7">
+      <c r="Q66" s="6">
         <v>70</v>
       </c>
       <c r="R66" s="2" t="s">
@@ -6271,11 +6303,11 @@
       <c r="E67">
         <v>8314</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="9">
         <f t="shared" si="0"/>
         <v>62854</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="8">
         <v>4</v>
       </c>
       <c r="H67">
@@ -6305,7 +6337,7 @@
       <c r="P67">
         <v>255</v>
       </c>
-      <c r="Q67" s="7">
+      <c r="Q67" s="6">
         <v>255</v>
       </c>
       <c r="R67" s="2" t="s">
@@ -6355,11 +6387,11 @@
       <c r="E68">
         <v>114</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="9">
         <f t="shared" si="0"/>
         <v>159</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="8">
         <v>2</v>
       </c>
       <c r="H68">
@@ -6389,7 +6421,7 @@
       <c r="P68">
         <v>255</v>
       </c>
-      <c r="Q68" s="7">
+      <c r="Q68" s="6">
         <v>233</v>
       </c>
       <c r="R68" s="2" t="s">
@@ -6439,11 +6471,11 @@
       <c r="E69">
         <v>225</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="9">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="8">
         <v>1</v>
       </c>
       <c r="H69">
@@ -6473,7 +6505,7 @@
       <c r="P69">
         <v>1</v>
       </c>
-      <c r="Q69" s="7">
+      <c r="Q69" s="6">
         <v>12</v>
       </c>
       <c r="R69" s="2" t="s">
@@ -6523,11 +6555,11 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="9">
         <f t="shared" ref="F70:F133" si="1">+D70+E70</f>
         <v>0</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="8">
         <v>99</v>
       </c>
       <c r="H70">
@@ -6557,7 +6589,7 @@
       <c r="P70">
         <v>111</v>
       </c>
-      <c r="Q70" s="7">
+      <c r="Q70" s="6">
         <v>99</v>
       </c>
       <c r="R70" s="2" t="s">
@@ -6607,11 +6639,11 @@
       <c r="E71">
         <v>53</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="9">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="8">
         <v>508</v>
       </c>
       <c r="H71">
@@ -6641,7 +6673,7 @@
       <c r="P71">
         <v>255</v>
       </c>
-      <c r="Q71" s="7">
+      <c r="Q71" s="6">
         <v>255</v>
       </c>
       <c r="R71" s="2" t="s">
@@ -6691,11 +6723,11 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="8">
         <v>511.00000000000006</v>
       </c>
       <c r="H72">
@@ -6725,7 +6757,7 @@
       <c r="P72">
         <v>255</v>
       </c>
-      <c r="Q72" s="7">
+      <c r="Q72" s="6">
         <v>1</v>
       </c>
       <c r="R72" s="2" t="s">
@@ -6775,11 +6807,11 @@
       <c r="E73">
         <v>15</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="8">
         <v>1</v>
       </c>
       <c r="H73">
@@ -6809,7 +6841,7 @@
       <c r="P73">
         <v>146</v>
       </c>
-      <c r="Q73" s="7">
+      <c r="Q73" s="6">
         <v>88</v>
       </c>
       <c r="R73" s="2" t="s">
@@ -6859,11 +6891,11 @@
       <c r="E74">
         <v>293</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="9">
         <f t="shared" si="1"/>
         <v>2892</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="8">
         <v>2</v>
       </c>
       <c r="H74">
@@ -6893,7 +6925,7 @@
       <c r="P74">
         <v>255</v>
       </c>
-      <c r="Q74" s="7">
+      <c r="Q74" s="6">
         <v>66</v>
       </c>
       <c r="R74" s="2" t="s">
@@ -6943,11 +6975,11 @@
       <c r="E75">
         <v>593</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="9">
         <f t="shared" si="1"/>
         <v>749</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="8">
         <v>1</v>
       </c>
       <c r="H75">
@@ -6977,7 +7009,7 @@
       <c r="P75">
         <v>255</v>
       </c>
-      <c r="Q75" s="7">
+      <c r="Q75" s="6">
         <v>3</v>
       </c>
       <c r="R75" s="2" t="s">
@@ -7027,11 +7059,11 @@
       <c r="E76">
         <v>174</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="9">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="8">
         <v>1</v>
       </c>
       <c r="H76">
@@ -7061,7 +7093,7 @@
       <c r="P76">
         <v>255</v>
       </c>
-      <c r="Q76" s="7">
+      <c r="Q76" s="6">
         <v>255</v>
       </c>
       <c r="R76" s="2" t="s">
@@ -7111,11 +7143,11 @@
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="9">
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="8">
         <v>166</v>
       </c>
       <c r="H77">
@@ -7145,7 +7177,7 @@
       <c r="P77">
         <v>255</v>
       </c>
-      <c r="Q77" s="7">
+      <c r="Q77" s="6">
         <v>255</v>
       </c>
       <c r="R77" s="2" t="s">
@@ -7195,11 +7227,11 @@
       <c r="E78">
         <v>138</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="9">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="8">
         <v>98</v>
       </c>
       <c r="H78">
@@ -7229,7 +7261,7 @@
       <c r="P78">
         <v>255</v>
       </c>
-      <c r="Q78" s="7">
+      <c r="Q78" s="6">
         <v>254</v>
       </c>
       <c r="R78" s="2" t="s">
@@ -7279,11 +7311,11 @@
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="8">
         <v>1</v>
       </c>
       <c r="H79">
@@ -7313,7 +7345,7 @@
       <c r="P79">
         <v>255</v>
       </c>
-      <c r="Q79" s="7">
+      <c r="Q79" s="6">
         <v>18</v>
       </c>
       <c r="R79" s="2" t="s">
@@ -7363,11 +7395,11 @@
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="8">
         <v>120</v>
       </c>
       <c r="H80">
@@ -7397,7 +7429,7 @@
       <c r="P80">
         <v>255</v>
       </c>
-      <c r="Q80" s="7">
+      <c r="Q80" s="6">
         <v>8</v>
       </c>
       <c r="R80" s="2" t="s">
@@ -7447,11 +7479,11 @@
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="8">
         <v>3</v>
       </c>
       <c r="H81">
@@ -7481,7 +7513,7 @@
       <c r="P81">
         <v>255</v>
       </c>
-      <c r="Q81" s="7">
+      <c r="Q81" s="6">
         <v>44</v>
       </c>
       <c r="R81" s="2" t="s">
@@ -7531,11 +7563,11 @@
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="8">
         <v>208</v>
       </c>
       <c r="H82">
@@ -7565,7 +7597,7 @@
       <c r="P82">
         <v>255</v>
       </c>
-      <c r="Q82" s="7">
+      <c r="Q82" s="6">
         <v>1</v>
       </c>
       <c r="R82" s="2" t="s">
@@ -7615,11 +7647,11 @@
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="8">
         <v>270</v>
       </c>
       <c r="H83">
@@ -7649,7 +7681,7 @@
       <c r="P83">
         <v>255</v>
       </c>
-      <c r="Q83" s="7">
+      <c r="Q83" s="6">
         <v>6</v>
       </c>
       <c r="R83" s="2" t="s">
@@ -7699,11 +7731,11 @@
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="9">
         <f t="shared" si="1"/>
         <v>1032</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="8">
         <v>453</v>
       </c>
       <c r="H84">
@@ -7733,7 +7765,7 @@
       <c r="P84">
         <v>255</v>
       </c>
-      <c r="Q84" s="7">
+      <c r="Q84" s="6">
         <v>255</v>
       </c>
       <c r="R84" s="2" t="s">
@@ -7783,11 +7815,11 @@
       <c r="E85">
         <v>7300</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="9">
         <f t="shared" si="1"/>
         <v>45260</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="8">
         <v>3</v>
       </c>
       <c r="H85">
@@ -7817,7 +7849,7 @@
       <c r="P85">
         <v>255</v>
       </c>
-      <c r="Q85" s="7">
+      <c r="Q85" s="6">
         <v>255</v>
       </c>
       <c r="R85" s="2" t="s">
@@ -7867,11 +7899,11 @@
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="8">
         <v>23</v>
       </c>
       <c r="H86">
@@ -7901,7 +7933,7 @@
       <c r="P86">
         <v>255</v>
       </c>
-      <c r="Q86" s="7">
+      <c r="Q86" s="6">
         <v>21</v>
       </c>
       <c r="R86" s="2" t="s">
@@ -7951,11 +7983,11 @@
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="9">
         <f t="shared" si="1"/>
         <v>283618</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="8">
         <v>2</v>
       </c>
       <c r="H87">
@@ -7985,7 +8017,7 @@
       <c r="P87">
         <v>6</v>
       </c>
-      <c r="Q87" s="7">
+      <c r="Q87" s="6">
         <v>28</v>
       </c>
       <c r="R87" s="2" t="s">
@@ -8035,11 +8067,11 @@
       <c r="E88">
         <v>8314</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="9">
         <f t="shared" si="1"/>
         <v>62854</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="8">
         <v>4</v>
       </c>
       <c r="H88">
@@ -8069,7 +8101,7 @@
       <c r="P88">
         <v>255</v>
       </c>
-      <c r="Q88" s="7">
+      <c r="Q88" s="6">
         <v>255</v>
       </c>
       <c r="R88" s="2" t="s">
@@ -8119,11 +8151,11 @@
       <c r="E89">
         <v>489</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F89" s="9">
         <f t="shared" si="1"/>
         <v>718</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="8">
         <v>2</v>
       </c>
       <c r="H89">
@@ -8153,7 +8185,7 @@
       <c r="P89">
         <v>87</v>
       </c>
-      <c r="Q89" s="7">
+      <c r="Q89" s="6">
         <v>177</v>
       </c>
       <c r="R89" s="2" t="s">
@@ -8203,11 +8235,11 @@
       <c r="E90">
         <v>57</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F90" s="9">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="8">
         <v>491</v>
       </c>
       <c r="H90">
@@ -8237,7 +8269,7 @@
       <c r="P90">
         <v>255</v>
       </c>
-      <c r="Q90" s="7">
+      <c r="Q90" s="6">
         <v>255</v>
       </c>
       <c r="R90" s="2" t="s">
@@ -8287,11 +8319,11 @@
       <c r="E91">
         <v>622</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F91" s="9">
         <f t="shared" si="1"/>
         <v>862</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="8">
         <v>2</v>
       </c>
       <c r="H91">
@@ -8321,7 +8353,7 @@
       <c r="P91">
         <v>255</v>
       </c>
-      <c r="Q91" s="7">
+      <c r="Q91" s="6">
         <v>28</v>
       </c>
       <c r="R91" s="2" t="s">
@@ -8371,11 +8403,11 @@
       <c r="E92">
         <v>44</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="8">
         <v>2</v>
       </c>
       <c r="H92">
@@ -8405,7 +8437,7 @@
       <c r="P92">
         <v>190</v>
       </c>
-      <c r="Q92" s="7">
+      <c r="Q92" s="6">
         <v>60</v>
       </c>
       <c r="R92" s="2" t="s">
@@ -8455,11 +8487,11 @@
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F93" s="9">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="8">
         <v>44</v>
       </c>
       <c r="H93">
@@ -8489,7 +8521,7 @@
       <c r="P93">
         <v>64</v>
       </c>
-      <c r="Q93" s="7">
+      <c r="Q93" s="6">
         <v>44</v>
       </c>
       <c r="R93" s="2" t="s">
@@ -8539,11 +8571,11 @@
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="8">
         <v>511.00000000000006</v>
       </c>
       <c r="H94">
@@ -8573,7 +8605,7 @@
       <c r="P94">
         <v>255</v>
       </c>
-      <c r="Q94" s="7">
+      <c r="Q94" s="6">
         <v>1</v>
       </c>
       <c r="R94" s="2" t="s">
@@ -8623,11 +8655,11 @@
       <c r="E95">
         <v>93</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="9">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="8">
         <v>2</v>
       </c>
       <c r="H95">
@@ -8657,7 +8689,7 @@
       <c r="P95">
         <v>255</v>
       </c>
-      <c r="Q95" s="7">
+      <c r="Q95" s="6">
         <v>136</v>
       </c>
       <c r="R95" s="2" t="s">
@@ -8707,11 +8739,11 @@
       <c r="E96">
         <v>44</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="8">
         <v>1</v>
       </c>
       <c r="H96">
@@ -8741,7 +8773,7 @@
       <c r="P96">
         <v>255</v>
       </c>
-      <c r="Q96" s="7">
+      <c r="Q96" s="6">
         <v>188</v>
       </c>
       <c r="R96" s="2" t="s">
@@ -8791,11 +8823,11 @@
       <c r="E97">
         <v>44</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F97" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="8">
         <v>1</v>
       </c>
       <c r="H97">
@@ -8825,7 +8857,7 @@
       <c r="P97">
         <v>255</v>
       </c>
-      <c r="Q97" s="7">
+      <c r="Q97" s="6">
         <v>114</v>
       </c>
       <c r="R97" s="2" t="s">
@@ -8875,11 +8907,11 @@
       <c r="E98">
         <v>93</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="9">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="G98" s="10">
+      <c r="G98" s="8">
         <v>1</v>
       </c>
       <c r="H98">
@@ -8909,7 +8941,7 @@
       <c r="P98">
         <v>255</v>
       </c>
-      <c r="Q98" s="7">
+      <c r="Q98" s="6">
         <v>255</v>
       </c>
       <c r="R98" s="2" t="s">
@@ -8959,11 +8991,11 @@
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="F99" s="11">
+      <c r="F99" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G99" s="10">
+      <c r="G99" s="8">
         <v>130</v>
       </c>
       <c r="H99">
@@ -8993,7 +9025,7 @@
       <c r="P99">
         <v>255</v>
       </c>
-      <c r="Q99" s="7">
+      <c r="Q99" s="6">
         <v>11</v>
       </c>
       <c r="R99" s="2" t="s">
@@ -9043,11 +9075,11 @@
       <c r="E100">
         <v>282</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F100" s="9">
         <f t="shared" si="1"/>
         <v>617</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="8">
         <v>12</v>
       </c>
       <c r="H100">
@@ -9077,7 +9109,7 @@
       <c r="P100">
         <v>255</v>
       </c>
-      <c r="Q100" s="7">
+      <c r="Q100" s="6">
         <v>225</v>
       </c>
       <c r="R100" s="2" t="s">
@@ -9127,11 +9159,11 @@
       <c r="E101">
         <v>93</v>
       </c>
-      <c r="F101" s="11">
+      <c r="F101" s="9">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="8">
         <v>1</v>
       </c>
       <c r="H101">
@@ -9161,7 +9193,7 @@
       <c r="P101">
         <v>255</v>
       </c>
-      <c r="Q101" s="7">
+      <c r="Q101" s="6">
         <v>232</v>
       </c>
       <c r="R101" s="2" t="s">
@@ -9211,11 +9243,11 @@
       <c r="E102">
         <v>8314</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102" s="9">
         <f t="shared" si="1"/>
         <v>62854</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G102" s="8">
         <v>5</v>
       </c>
       <c r="H102">
@@ -9245,7 +9277,7 @@
       <c r="P102">
         <v>255</v>
       </c>
-      <c r="Q102" s="7">
+      <c r="Q102" s="6">
         <v>254</v>
       </c>
       <c r="R102" s="2" t="s">
@@ -9295,11 +9327,11 @@
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G103" s="10">
+      <c r="G103" s="8">
         <v>211</v>
       </c>
       <c r="H103">
@@ -9329,7 +9361,7 @@
       <c r="P103">
         <v>255</v>
       </c>
-      <c r="Q103" s="7">
+      <c r="Q103" s="6">
         <v>1</v>
       </c>
       <c r="R103" s="2" t="s">
@@ -9379,11 +9411,11 @@
       <c r="E104">
         <v>0</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F104" s="9">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G104" s="8">
         <v>71</v>
       </c>
       <c r="H104">
@@ -9413,7 +9445,7 @@
       <c r="P104">
         <v>96</v>
       </c>
-      <c r="Q104" s="7">
+      <c r="Q104" s="6">
         <v>71</v>
       </c>
       <c r="R104" s="2" t="s">
@@ -9463,11 +9495,11 @@
       <c r="E105">
         <v>0</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F105" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G105" s="10">
+      <c r="G105" s="8">
         <v>482</v>
       </c>
       <c r="H105">
@@ -9497,7 +9529,7 @@
       <c r="P105">
         <v>255</v>
       </c>
-      <c r="Q105" s="7">
+      <c r="Q105" s="6">
         <v>1</v>
       </c>
       <c r="R105" s="2" t="s">
@@ -9547,11 +9579,11 @@
       <c r="E106">
         <v>0</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="8">
         <v>231</v>
       </c>
       <c r="H106">
@@ -9581,7 +9613,7 @@
       <c r="P106">
         <v>255</v>
       </c>
-      <c r="Q106" s="7">
+      <c r="Q106" s="6">
         <v>8</v>
       </c>
       <c r="R106" s="2" t="s">
@@ -9631,11 +9663,11 @@
       <c r="E107">
         <v>601</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F107" s="9">
         <f t="shared" si="1"/>
         <v>765</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="8">
         <v>1</v>
       </c>
       <c r="H107">
@@ -9665,7 +9697,7 @@
       <c r="P107">
         <v>255</v>
       </c>
-      <c r="Q107" s="7">
+      <c r="Q107" s="6">
         <v>60</v>
       </c>
       <c r="R107" s="2" t="s">
@@ -9715,11 +9747,11 @@
       <c r="E108">
         <v>0</v>
       </c>
-      <c r="F108" s="11">
+      <c r="F108" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="8">
         <v>1</v>
       </c>
       <c r="H108">
@@ -9749,7 +9781,7 @@
       <c r="P108">
         <v>5</v>
       </c>
-      <c r="Q108" s="7">
+      <c r="Q108" s="6">
         <v>25</v>
       </c>
       <c r="R108" s="2" t="s">
@@ -9799,11 +9831,11 @@
       <c r="E109">
         <v>44</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="G109" s="10">
+      <c r="G109" s="8">
         <v>1</v>
       </c>
       <c r="H109">
@@ -9833,7 +9865,7 @@
       <c r="P109">
         <v>255</v>
       </c>
-      <c r="Q109" s="7">
+      <c r="Q109" s="6">
         <v>132</v>
       </c>
       <c r="R109" s="2" t="s">
@@ -9883,11 +9915,11 @@
       <c r="E110">
         <v>44</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="G110" s="10">
+      <c r="G110" s="8">
         <v>2</v>
       </c>
       <c r="H110">
@@ -9917,7 +9949,7 @@
       <c r="P110">
         <v>255</v>
       </c>
-      <c r="Q110" s="7">
+      <c r="Q110" s="6">
         <v>15</v>
       </c>
       <c r="R110" s="2" t="s">
@@ -9967,11 +9999,11 @@
       <c r="E111">
         <v>0</v>
       </c>
-      <c r="F111" s="11">
+      <c r="F111" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G111" s="10">
+      <c r="G111" s="8">
         <v>269</v>
       </c>
       <c r="H111">
@@ -10001,7 +10033,7 @@
       <c r="P111">
         <v>255</v>
       </c>
-      <c r="Q111" s="7">
+      <c r="Q111" s="6">
         <v>17</v>
       </c>
       <c r="R111" s="2" t="s">
@@ -10051,11 +10083,11 @@
       <c r="E112">
         <v>0</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112" s="9">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="G112" s="10">
+      <c r="G112" s="8">
         <v>5</v>
       </c>
       <c r="H112">
@@ -10085,7 +10117,7 @@
       <c r="P112">
         <v>255</v>
       </c>
-      <c r="Q112" s="7">
+      <c r="Q112" s="6">
         <v>255</v>
       </c>
       <c r="R112" s="2" t="s">
@@ -10135,11 +10167,11 @@
       <c r="E113">
         <v>2507</v>
       </c>
-      <c r="F113" s="11">
+      <c r="F113" s="9">
         <f t="shared" si="1"/>
         <v>2808</v>
       </c>
-      <c r="G113" s="10">
+      <c r="G113" s="8">
         <v>1</v>
       </c>
       <c r="H113">
@@ -10169,7 +10201,7 @@
       <c r="P113">
         <v>255</v>
       </c>
-      <c r="Q113" s="7">
+      <c r="Q113" s="6">
         <v>229</v>
       </c>
       <c r="R113" s="2" t="s">
@@ -10219,11 +10251,11 @@
       <c r="E114">
         <v>0</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114" s="9">
         <f t="shared" si="1"/>
         <v>55044</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="8">
         <v>55.000000000000007</v>
       </c>
       <c r="H114">
@@ -10253,7 +10285,7 @@
       <c r="P114">
         <v>255</v>
       </c>
-      <c r="Q114" s="7">
+      <c r="Q114" s="6">
         <v>255</v>
       </c>
       <c r="R114" s="2" t="s">
@@ -10303,11 +10335,11 @@
       <c r="E115">
         <v>0</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F115" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G115" s="10">
+      <c r="G115" s="8">
         <v>241</v>
       </c>
       <c r="H115">
@@ -10337,7 +10369,7 @@
       <c r="P115">
         <v>255</v>
       </c>
-      <c r="Q115" s="7">
+      <c r="Q115" s="6">
         <v>5</v>
       </c>
       <c r="R115" s="2" t="s">
@@ -10387,11 +10419,11 @@
       <c r="E116">
         <v>0</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G116" s="10">
+      <c r="G116" s="8">
         <v>2</v>
       </c>
       <c r="H116">
@@ -10421,7 +10453,7 @@
       <c r="P116">
         <v>226</v>
       </c>
-      <c r="Q116" s="7">
+      <c r="Q116" s="6">
         <v>14</v>
       </c>
       <c r="R116" s="2" t="s">
@@ -10471,11 +10503,11 @@
       <c r="E117">
         <v>93</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F117" s="9">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="G117" s="10">
+      <c r="G117" s="8">
         <v>1</v>
       </c>
       <c r="H117">
@@ -10505,7 +10537,7 @@
       <c r="P117">
         <v>255</v>
       </c>
-      <c r="Q117" s="7">
+      <c r="Q117" s="6">
         <v>213</v>
       </c>
       <c r="R117" s="2" t="s">
@@ -10555,11 +10587,11 @@
       <c r="E118">
         <v>93</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F118" s="9">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="G118" s="10">
+      <c r="G118" s="8">
         <v>1</v>
       </c>
       <c r="H118">
@@ -10589,7 +10621,7 @@
       <c r="P118">
         <v>255</v>
       </c>
-      <c r="Q118" s="7">
+      <c r="Q118" s="6">
         <v>136</v>
       </c>
       <c r="R118" s="2" t="s">
@@ -10639,11 +10671,11 @@
       <c r="E119">
         <v>93</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F119" s="9">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="G119" s="10">
+      <c r="G119" s="8">
         <v>1</v>
       </c>
       <c r="H119">
@@ -10673,7 +10705,7 @@
       <c r="P119">
         <v>255</v>
       </c>
-      <c r="Q119" s="7">
+      <c r="Q119" s="6">
         <v>164</v>
       </c>
       <c r="R119" s="2" t="s">
@@ -10723,11 +10755,11 @@
       <c r="E120">
         <v>44</v>
       </c>
-      <c r="F120" s="11">
+      <c r="F120" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="G120" s="10">
+      <c r="G120" s="8">
         <v>1</v>
       </c>
       <c r="H120">
@@ -10757,7 +10789,7 @@
       <c r="P120">
         <v>255</v>
       </c>
-      <c r="Q120" s="7">
+      <c r="Q120" s="6">
         <v>161</v>
       </c>
       <c r="R120" s="2" t="s">
@@ -10807,11 +10839,11 @@
       <c r="E121">
         <v>0</v>
       </c>
-      <c r="F121" s="11">
+      <c r="F121" s="9">
         <f t="shared" si="1"/>
         <v>72564</v>
       </c>
-      <c r="G121" s="10">
+      <c r="G121" s="8">
         <v>12</v>
       </c>
       <c r="H121">
@@ -10841,7 +10873,7 @@
       <c r="P121">
         <v>255</v>
       </c>
-      <c r="Q121" s="7">
+      <c r="Q121" s="6">
         <v>237</v>
       </c>
       <c r="R121" s="2" t="s">
@@ -10891,11 +10923,11 @@
       <c r="E122">
         <v>0</v>
       </c>
-      <c r="F122" s="11">
+      <c r="F122" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G122" s="10">
+      <c r="G122" s="8">
         <v>41</v>
       </c>
       <c r="H122">
@@ -10925,7 +10957,7 @@
       <c r="P122">
         <v>255</v>
       </c>
-      <c r="Q122" s="7">
+      <c r="Q122" s="6">
         <v>2</v>
       </c>
       <c r="R122" s="2" t="s">
@@ -10975,11 +11007,11 @@
       <c r="E123">
         <v>93</v>
       </c>
-      <c r="F123" s="11">
+      <c r="F123" s="9">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="G123" s="10">
+      <c r="G123" s="8">
         <v>1</v>
       </c>
       <c r="H123">
@@ -11009,7 +11041,7 @@
       <c r="P123">
         <v>255</v>
       </c>
-      <c r="Q123" s="7">
+      <c r="Q123" s="6">
         <v>237</v>
       </c>
       <c r="R123" s="2" t="s">
@@ -11059,11 +11091,11 @@
       <c r="E124">
         <v>0</v>
       </c>
-      <c r="F124" s="11">
+      <c r="F124" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G124" s="10">
+      <c r="G124" s="8">
         <v>118</v>
       </c>
       <c r="H124">
@@ -11093,7 +11125,7 @@
       <c r="P124">
         <v>255</v>
       </c>
-      <c r="Q124" s="7">
+      <c r="Q124" s="6">
         <v>4</v>
       </c>
       <c r="R124" s="2" t="s">
@@ -11143,11 +11175,11 @@
       <c r="E125">
         <v>6256</v>
       </c>
-      <c r="F125" s="11">
+      <c r="F125" s="9">
         <f t="shared" si="1"/>
         <v>6601</v>
       </c>
-      <c r="G125" s="10">
+      <c r="G125" s="8">
         <v>3</v>
       </c>
       <c r="H125">
@@ -11177,7 +11209,7 @@
       <c r="P125">
         <v>255</v>
       </c>
-      <c r="Q125" s="7">
+      <c r="Q125" s="6">
         <v>255</v>
       </c>
       <c r="R125" s="2" t="s">
@@ -11227,11 +11259,11 @@
       <c r="E126">
         <v>157</v>
       </c>
-      <c r="F126" s="11">
+      <c r="F126" s="9">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="G126" s="10">
+      <c r="G126" s="8">
         <v>1</v>
       </c>
       <c r="H126">
@@ -11261,7 +11293,7 @@
       <c r="P126">
         <v>179</v>
       </c>
-      <c r="Q126" s="7">
+      <c r="Q126" s="6">
         <v>85</v>
       </c>
       <c r="R126" s="2" t="s">
@@ -11311,11 +11343,11 @@
       <c r="E127">
         <v>2920</v>
       </c>
-      <c r="F127" s="11">
+      <c r="F127" s="9">
         <f t="shared" si="1"/>
         <v>48180</v>
       </c>
-      <c r="G127" s="10">
+      <c r="G127" s="8">
         <v>3</v>
       </c>
       <c r="H127">
@@ -11345,7 +11377,7 @@
       <c r="P127">
         <v>255</v>
       </c>
-      <c r="Q127" s="7">
+      <c r="Q127" s="6">
         <v>254</v>
       </c>
       <c r="R127" s="2" t="s">
@@ -11395,11 +11427,11 @@
       <c r="E128">
         <v>174</v>
       </c>
-      <c r="F128" s="11">
+      <c r="F128" s="9">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="G128" s="10">
+      <c r="G128" s="8">
         <v>2</v>
       </c>
       <c r="H128">
@@ -11429,7 +11461,7 @@
       <c r="P128">
         <v>255</v>
       </c>
-      <c r="Q128" s="7">
+      <c r="Q128" s="6">
         <v>229</v>
       </c>
       <c r="R128" s="2" t="s">
@@ -11479,11 +11511,11 @@
       <c r="E129">
         <v>0</v>
       </c>
-      <c r="F129" s="11">
+      <c r="F129" s="9">
         <f t="shared" si="1"/>
         <v>1032</v>
       </c>
-      <c r="G129" s="10">
+      <c r="G129" s="8">
         <v>287</v>
       </c>
       <c r="H129">
@@ -11513,7 +11545,7 @@
       <c r="P129">
         <v>255</v>
       </c>
-      <c r="Q129" s="7">
+      <c r="Q129" s="6">
         <v>255</v>
       </c>
       <c r="R129" s="2" t="s">
@@ -11563,11 +11595,11 @@
       <c r="E130">
         <v>174</v>
       </c>
-      <c r="F130" s="11">
+      <c r="F130" s="9">
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
-      <c r="G130" s="10">
+      <c r="G130" s="8">
         <v>1</v>
       </c>
       <c r="H130">
@@ -11597,7 +11629,7 @@
       <c r="P130">
         <v>255</v>
       </c>
-      <c r="Q130" s="7">
+      <c r="Q130" s="6">
         <v>152</v>
       </c>
       <c r="R130" s="2" t="s">
@@ -11647,11 +11679,11 @@
       <c r="E131">
         <v>44</v>
       </c>
-      <c r="F131" s="11">
+      <c r="F131" s="9">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="G131" s="10">
+      <c r="G131" s="8">
         <v>114.99999999999999</v>
       </c>
       <c r="H131">
@@ -11681,7 +11713,7 @@
       <c r="P131">
         <v>255</v>
       </c>
-      <c r="Q131" s="7">
+      <c r="Q131" s="6">
         <v>255</v>
       </c>
       <c r="R131" s="2" t="s">
@@ -11731,11 +11763,11 @@
       <c r="E132">
         <v>0</v>
       </c>
-      <c r="F132" s="11">
+      <c r="F132" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G132" s="10">
+      <c r="G132" s="8">
         <v>2</v>
       </c>
       <c r="H132">
@@ -11765,7 +11797,7 @@
       <c r="P132">
         <v>255</v>
       </c>
-      <c r="Q132" s="7">
+      <c r="Q132" s="6">
         <v>8</v>
       </c>
       <c r="R132" s="2" t="s">
@@ -11815,11 +11847,11 @@
       <c r="E133">
         <v>0</v>
       </c>
-      <c r="F133" s="11">
+      <c r="F133" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G133" s="10">
+      <c r="G133" s="8">
         <v>388</v>
       </c>
       <c r="H133">
@@ -11849,7 +11881,7 @@
       <c r="P133">
         <v>255</v>
       </c>
-      <c r="Q133" s="7">
+      <c r="Q133" s="6">
         <v>1</v>
       </c>
       <c r="R133" s="2" t="s">
@@ -11899,11 +11931,11 @@
       <c r="E134">
         <v>0</v>
       </c>
-      <c r="F134" s="11">
+      <c r="F134" s="9">
         <f t="shared" ref="F134:F197" si="2">+D134+E134</f>
         <v>12</v>
       </c>
-      <c r="G134" s="10">
+      <c r="G134" s="8">
         <v>1</v>
       </c>
       <c r="H134">
@@ -11933,7 +11965,7 @@
       <c r="P134">
         <v>1</v>
       </c>
-      <c r="Q134" s="7">
+      <c r="Q134" s="6">
         <v>11</v>
       </c>
       <c r="R134" s="2" t="s">
@@ -11983,11 +12015,11 @@
       <c r="E135">
         <v>44</v>
       </c>
-      <c r="F135" s="11">
+      <c r="F135" s="9">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="G135" s="10">
+      <c r="G135" s="8">
         <v>1</v>
       </c>
       <c r="H135">
@@ -12017,7 +12049,7 @@
       <c r="P135">
         <v>255</v>
       </c>
-      <c r="Q135" s="7">
+      <c r="Q135" s="6">
         <v>211</v>
       </c>
       <c r="R135" s="2" t="s">
@@ -12067,11 +12099,11 @@
       <c r="E136">
         <v>293</v>
       </c>
-      <c r="F136" s="11">
+      <c r="F136" s="9">
         <f t="shared" si="2"/>
         <v>2892</v>
       </c>
-      <c r="G136" s="10">
+      <c r="G136" s="8">
         <v>4</v>
       </c>
       <c r="H136">
@@ -12101,7 +12133,7 @@
       <c r="P136">
         <v>255</v>
       </c>
-      <c r="Q136" s="7">
+      <c r="Q136" s="6">
         <v>241</v>
       </c>
       <c r="R136" s="2" t="s">
@@ -12151,11 +12183,11 @@
       <c r="E137">
         <v>114</v>
       </c>
-      <c r="F137" s="11">
+      <c r="F137" s="9">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="G137" s="10">
+      <c r="G137" s="8">
         <v>2</v>
       </c>
       <c r="H137">
@@ -12185,7 +12217,7 @@
       <c r="P137">
         <v>255</v>
       </c>
-      <c r="Q137" s="7">
+      <c r="Q137" s="6">
         <v>225</v>
       </c>
       <c r="R137" s="2" t="s">
@@ -12235,11 +12267,11 @@
       <c r="E138">
         <v>1</v>
       </c>
-      <c r="F138" s="11">
+      <c r="F138" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G138" s="10">
+      <c r="G138" s="8">
         <v>127</v>
       </c>
       <c r="H138">
@@ -12269,7 +12301,7 @@
       <c r="P138">
         <v>255</v>
       </c>
-      <c r="Q138" s="7">
+      <c r="Q138" s="6">
         <v>1</v>
       </c>
       <c r="R138" s="2" t="s">
@@ -12319,11 +12351,11 @@
       <c r="E139">
         <v>1</v>
       </c>
-      <c r="F139" s="11">
+      <c r="F139" s="9">
         <f t="shared" si="2"/>
         <v>56505</v>
       </c>
-      <c r="G139" s="10">
+      <c r="G139" s="8">
         <v>41</v>
       </c>
       <c r="H139">
@@ -12353,7 +12385,7 @@
       <c r="P139">
         <v>255</v>
       </c>
-      <c r="Q139" s="7">
+      <c r="Q139" s="6">
         <v>254</v>
       </c>
       <c r="R139" s="2" t="s">
@@ -12403,11 +12435,11 @@
       <c r="E140">
         <v>15</v>
       </c>
-      <c r="F140" s="11">
+      <c r="F140" s="9">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G140" s="10">
+      <c r="G140" s="8">
         <v>1</v>
       </c>
       <c r="H140">
@@ -12437,7 +12469,7 @@
       <c r="P140">
         <v>173</v>
       </c>
-      <c r="Q140" s="7">
+      <c r="Q140" s="6">
         <v>86</v>
       </c>
       <c r="R140" s="2" t="s">
@@ -12487,11 +12519,11 @@
       <c r="E141">
         <v>0</v>
       </c>
-      <c r="F141" s="11">
+      <c r="F141" s="9">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="G141" s="10">
+      <c r="G141" s="8">
         <v>5</v>
       </c>
       <c r="H141">
@@ -12521,7 +12553,7 @@
       <c r="P141">
         <v>255</v>
       </c>
-      <c r="Q141" s="7">
+      <c r="Q141" s="6">
         <v>254</v>
       </c>
       <c r="R141" s="2" t="s">
@@ -12571,11 +12603,11 @@
       <c r="E142">
         <v>174</v>
       </c>
-      <c r="F142" s="11">
+      <c r="F142" s="9">
         <f t="shared" si="2"/>
         <v>299</v>
       </c>
-      <c r="G142" s="10">
+      <c r="G142" s="8">
         <v>1</v>
       </c>
       <c r="H142">
@@ -12605,7 +12637,7 @@
       <c r="P142">
         <v>255</v>
       </c>
-      <c r="Q142" s="7">
+      <c r="Q142" s="6">
         <v>147</v>
       </c>
       <c r="R142" s="2" t="s">
@@ -12655,11 +12687,11 @@
       <c r="E143">
         <v>261</v>
       </c>
-      <c r="F143" s="11">
+      <c r="F143" s="9">
         <f t="shared" si="2"/>
         <v>2860</v>
       </c>
-      <c r="G143" s="10">
+      <c r="G143" s="8">
         <v>3</v>
       </c>
       <c r="H143">
@@ -12689,7 +12721,7 @@
       <c r="P143">
         <v>255</v>
       </c>
-      <c r="Q143" s="7">
+      <c r="Q143" s="6">
         <v>246</v>
       </c>
       <c r="R143" s="2" t="s">
@@ -12739,11 +12771,11 @@
       <c r="E144">
         <v>157</v>
       </c>
-      <c r="F144" s="11">
+      <c r="F144" s="9">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="G144" s="10">
+      <c r="G144" s="8">
         <v>2</v>
       </c>
       <c r="H144">
@@ -12773,7 +12805,7 @@
       <c r="P144">
         <v>91</v>
       </c>
-      <c r="Q144" s="7">
+      <c r="Q144" s="6">
         <v>48</v>
       </c>
       <c r="R144" s="2" t="s">
@@ -12823,11 +12855,11 @@
       <c r="E145">
         <v>0</v>
       </c>
-      <c r="F145" s="11">
+      <c r="F145" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G145" s="10">
+      <c r="G145" s="8">
         <v>2</v>
       </c>
       <c r="H145">
@@ -12857,7 +12889,7 @@
       <c r="P145">
         <v>2</v>
       </c>
-      <c r="Q145" s="7">
+      <c r="Q145" s="6">
         <v>13</v>
       </c>
       <c r="R145" s="2" t="s">
@@ -12907,11 +12939,11 @@
       <c r="E146">
         <v>0</v>
       </c>
-      <c r="F146" s="11">
+      <c r="F146" s="9">
         <f t="shared" si="2"/>
         <v>56504</v>
       </c>
-      <c r="G146" s="10">
+      <c r="G146" s="8">
         <v>9</v>
       </c>
       <c r="H146">
@@ -12941,7 +12973,7 @@
       <c r="P146">
         <v>255</v>
       </c>
-      <c r="Q146" s="7">
+      <c r="Q146" s="6">
         <v>243</v>
       </c>
       <c r="R146" s="2" t="s">
@@ -12991,11 +13023,11 @@
       <c r="E147">
         <v>0</v>
       </c>
-      <c r="F147" s="11">
+      <c r="F147" s="9">
         <f t="shared" si="2"/>
         <v>283618</v>
       </c>
-      <c r="G147" s="10">
+      <c r="G147" s="8">
         <v>3</v>
       </c>
       <c r="H147">
@@ -13025,7 +13057,7 @@
       <c r="P147">
         <v>255</v>
       </c>
-      <c r="Q147" s="7">
+      <c r="Q147" s="6">
         <v>16</v>
       </c>
       <c r="R147" s="2" t="s">
@@ -13075,11 +13107,11 @@
       <c r="E148">
         <v>0</v>
       </c>
-      <c r="F148" s="11">
+      <c r="F148" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G148" s="10">
+      <c r="G148" s="8">
         <v>1</v>
       </c>
       <c r="H148">
@@ -13109,7 +13141,7 @@
       <c r="P148">
         <v>255</v>
       </c>
-      <c r="Q148" s="7">
+      <c r="Q148" s="6">
         <v>1</v>
       </c>
       <c r="R148" s="2" t="s">
@@ -13159,11 +13191,11 @@
       <c r="E149">
         <v>391</v>
       </c>
-      <c r="F149" s="11">
+      <c r="F149" s="9">
         <f t="shared" si="2"/>
         <v>1441</v>
       </c>
-      <c r="G149" s="10">
+      <c r="G149" s="8">
         <v>1</v>
       </c>
       <c r="H149">
@@ -13193,7 +13225,7 @@
       <c r="P149">
         <v>255</v>
       </c>
-      <c r="Q149" s="7">
+      <c r="Q149" s="6">
         <v>14</v>
       </c>
       <c r="R149" s="2" t="s">
@@ -13243,11 +13275,11 @@
       <c r="E150">
         <v>44</v>
       </c>
-      <c r="F150" s="11">
+      <c r="F150" s="9">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="G150" s="10">
+      <c r="G150" s="8">
         <v>4</v>
       </c>
       <c r="H150">
@@ -13277,7 +13309,7 @@
       <c r="P150">
         <v>255</v>
       </c>
-      <c r="Q150" s="7">
+      <c r="Q150" s="6">
         <v>234</v>
       </c>
       <c r="R150" s="2" t="s">
@@ -13327,11 +13359,11 @@
       <c r="E151">
         <v>293</v>
       </c>
-      <c r="F151" s="11">
+      <c r="F151" s="9">
         <f t="shared" si="2"/>
         <v>2892</v>
       </c>
-      <c r="G151" s="10">
+      <c r="G151" s="8">
         <v>3</v>
       </c>
       <c r="H151">
@@ -13361,7 +13393,7 @@
       <c r="P151">
         <v>255</v>
       </c>
-      <c r="Q151" s="7">
+      <c r="Q151" s="6">
         <v>139</v>
       </c>
       <c r="R151" s="2" t="s">
@@ -13411,11 +13443,11 @@
       <c r="E152">
         <v>8314</v>
       </c>
-      <c r="F152" s="11">
+      <c r="F152" s="9">
         <f t="shared" si="2"/>
         <v>62854</v>
       </c>
-      <c r="G152" s="10">
+      <c r="G152" s="8">
         <v>5</v>
       </c>
       <c r="H152">
@@ -13445,7 +13477,7 @@
       <c r="P152">
         <v>255</v>
       </c>
-      <c r="Q152" s="7">
+      <c r="Q152" s="6">
         <v>248</v>
       </c>
       <c r="R152" s="2" t="s">
@@ -13495,11 +13527,11 @@
       <c r="E153">
         <v>0</v>
       </c>
-      <c r="F153" s="11">
+      <c r="F153" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G153" s="10">
+      <c r="G153" s="8">
         <v>398</v>
       </c>
       <c r="H153">
@@ -13529,7 +13561,7 @@
       <c r="P153">
         <v>255</v>
       </c>
-      <c r="Q153" s="7">
+      <c r="Q153" s="6">
         <v>1</v>
       </c>
       <c r="R153" s="2" t="s">
@@ -13579,11 +13611,11 @@
       <c r="E154">
         <v>0</v>
       </c>
-      <c r="F154" s="11">
+      <c r="F154" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G154" s="10">
+      <c r="G154" s="8">
         <v>2</v>
       </c>
       <c r="H154">
@@ -13613,7 +13645,7 @@
       <c r="P154">
         <v>68</v>
       </c>
-      <c r="Q154" s="7">
+      <c r="Q154" s="6">
         <v>56</v>
       </c>
       <c r="R154" s="2" t="s">
@@ -13663,11 +13695,11 @@
       <c r="E155">
         <v>0</v>
       </c>
-      <c r="F155" s="11">
+      <c r="F155" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G155" s="10">
+      <c r="G155" s="8">
         <v>244</v>
       </c>
       <c r="H155">
@@ -13697,7 +13729,7 @@
       <c r="P155">
         <v>255</v>
       </c>
-      <c r="Q155" s="7">
+      <c r="Q155" s="6">
         <v>20</v>
       </c>
       <c r="R155" s="2" t="s">
@@ -13747,11 +13779,11 @@
       <c r="E156">
         <v>0</v>
       </c>
-      <c r="F156" s="11">
+      <c r="F156" s="9">
         <f t="shared" si="2"/>
         <v>508</v>
       </c>
-      <c r="G156" s="10">
+      <c r="G156" s="8">
         <v>511.00000000000006</v>
       </c>
       <c r="H156">
@@ -13781,7 +13813,7 @@
       <c r="P156">
         <v>255</v>
       </c>
-      <c r="Q156" s="7">
+      <c r="Q156" s="6">
         <v>192</v>
       </c>
       <c r="R156" s="2" t="s">
@@ -13831,11 +13863,11 @@
       <c r="E157">
         <v>174</v>
       </c>
-      <c r="F157" s="11">
+      <c r="F157" s="9">
         <f t="shared" si="2"/>
         <v>294</v>
       </c>
-      <c r="G157" s="10">
+      <c r="G157" s="8">
         <v>2</v>
       </c>
       <c r="H157">
@@ -13865,7 +13897,7 @@
       <c r="P157">
         <v>255</v>
       </c>
-      <c r="Q157" s="7">
+      <c r="Q157" s="6">
         <v>248</v>
       </c>
       <c r="R157" s="2" t="s">
@@ -13915,11 +13947,11 @@
       <c r="E158">
         <v>0</v>
       </c>
-      <c r="F158" s="11">
+      <c r="F158" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G158" s="10">
+      <c r="G158" s="8">
         <v>40</v>
       </c>
       <c r="H158">
@@ -13949,7 +13981,7 @@
       <c r="P158">
         <v>255</v>
       </c>
-      <c r="Q158" s="7">
+      <c r="Q158" s="6">
         <v>21</v>
       </c>
       <c r="R158" s="2" t="s">
@@ -13999,11 +14031,11 @@
       <c r="E159">
         <v>293</v>
       </c>
-      <c r="F159" s="11">
+      <c r="F159" s="9">
         <f t="shared" si="2"/>
         <v>2892</v>
       </c>
-      <c r="G159" s="10">
+      <c r="G159" s="8">
         <v>3</v>
       </c>
       <c r="H159">
@@ -14033,7 +14065,7 @@
       <c r="P159">
         <v>255</v>
       </c>
-      <c r="Q159" s="7">
+      <c r="Q159" s="6">
         <v>126</v>
       </c>
       <c r="R159" s="2" t="s">
@@ -14083,11 +14115,11 @@
       <c r="E160">
         <v>103</v>
       </c>
-      <c r="F160" s="11">
+      <c r="F160" s="9">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="G160" s="10">
+      <c r="G160" s="8">
         <v>1</v>
       </c>
       <c r="H160">
@@ -14117,7 +14149,7 @@
       <c r="P160">
         <v>255</v>
       </c>
-      <c r="Q160" s="7">
+      <c r="Q160" s="6">
         <v>255</v>
       </c>
       <c r="R160" s="2" t="s">
@@ -14167,11 +14199,11 @@
       <c r="E161">
         <v>44</v>
       </c>
-      <c r="F161" s="11">
+      <c r="F161" s="9">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="G161" s="10">
+      <c r="G161" s="8">
         <v>1</v>
       </c>
       <c r="H161">
@@ -14201,7 +14233,7 @@
       <c r="P161">
         <v>255</v>
       </c>
-      <c r="Q161" s="7">
+      <c r="Q161" s="6">
         <v>248</v>
       </c>
       <c r="R161" s="2" t="s">
@@ -14251,11 +14283,11 @@
       <c r="E162">
         <v>0</v>
       </c>
-      <c r="F162" s="11">
+      <c r="F162" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G162" s="10">
+      <c r="G162" s="8">
         <v>141</v>
       </c>
       <c r="H162">
@@ -14285,7 +14317,7 @@
       <c r="P162">
         <v>255</v>
       </c>
-      <c r="Q162" s="7">
+      <c r="Q162" s="6">
         <v>15</v>
       </c>
       <c r="R162" s="2" t="s">
@@ -14335,11 +14367,11 @@
       <c r="E163">
         <v>1</v>
       </c>
-      <c r="F163" s="11">
+      <c r="F163" s="9">
         <f t="shared" si="2"/>
         <v>56505</v>
       </c>
-      <c r="G163" s="10">
+      <c r="G163" s="8">
         <v>10</v>
       </c>
       <c r="H163">
@@ -14369,7 +14401,7 @@
       <c r="P163">
         <v>255</v>
       </c>
-      <c r="Q163" s="7">
+      <c r="Q163" s="6">
         <v>243</v>
       </c>
       <c r="R163" s="2" t="s">
@@ -14419,11 +14451,11 @@
       <c r="E164">
         <v>0</v>
       </c>
-      <c r="F164" s="11">
+      <c r="F164" s="9">
         <f t="shared" si="2"/>
         <v>72564</v>
       </c>
-      <c r="G164" s="10">
+      <c r="G164" s="8">
         <v>13</v>
       </c>
       <c r="H164">
@@ -14453,7 +14485,7 @@
       <c r="P164">
         <v>255</v>
       </c>
-      <c r="Q164" s="7">
+      <c r="Q164" s="6">
         <v>231</v>
       </c>
       <c r="R164" s="2" t="s">
@@ -14503,11 +14535,11 @@
       <c r="E165">
         <v>0</v>
       </c>
-      <c r="F165" s="11">
+      <c r="F165" s="9">
         <f t="shared" si="2"/>
         <v>1032</v>
       </c>
-      <c r="G165" s="10">
+      <c r="G165" s="8">
         <v>511.00000000000006</v>
       </c>
       <c r="H165">
@@ -14537,7 +14569,7 @@
       <c r="P165">
         <v>255</v>
       </c>
-      <c r="Q165" s="7">
+      <c r="Q165" s="6">
         <v>129</v>
       </c>
       <c r="R165" s="2" t="s">
@@ -14587,11 +14619,11 @@
       <c r="E166">
         <v>0</v>
       </c>
-      <c r="F166" s="11">
+      <c r="F166" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G166" s="10">
+      <c r="G166" s="8">
         <v>511.00000000000006</v>
       </c>
       <c r="H166">
@@ -14621,7 +14653,7 @@
       <c r="P166">
         <v>255</v>
       </c>
-      <c r="Q166" s="7">
+      <c r="Q166" s="6">
         <v>1</v>
       </c>
       <c r="R166" s="2" t="s">
@@ -14671,11 +14703,11 @@
       <c r="E167">
         <v>0</v>
       </c>
-      <c r="F167" s="11">
+      <c r="F167" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G167" s="10">
+      <c r="G167" s="8">
         <v>135</v>
       </c>
       <c r="H167">
@@ -14705,7 +14737,7 @@
       <c r="P167">
         <v>134</v>
       </c>
-      <c r="Q167" s="7">
+      <c r="Q167" s="6">
         <v>8</v>
       </c>
       <c r="R167" s="2" t="s">
@@ -14755,11 +14787,11 @@
       <c r="E168">
         <v>0</v>
       </c>
-      <c r="F168" s="11">
+      <c r="F168" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G168" s="10">
+      <c r="G168" s="8">
         <v>1</v>
       </c>
       <c r="H168">
@@ -14789,7 +14821,7 @@
       <c r="P168">
         <v>255</v>
       </c>
-      <c r="Q168" s="7">
+      <c r="Q168" s="6">
         <v>4</v>
       </c>
       <c r="R168" s="2" t="s">
@@ -14839,11 +14871,11 @@
       <c r="E169">
         <v>44</v>
       </c>
-      <c r="F169" s="11">
+      <c r="F169" s="9">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="G169" s="10">
+      <c r="G169" s="8">
         <v>162</v>
       </c>
       <c r="H169">
@@ -14873,7 +14905,7 @@
       <c r="P169">
         <v>255</v>
       </c>
-      <c r="Q169" s="7">
+      <c r="Q169" s="6">
         <v>255</v>
       </c>
       <c r="R169" s="2" t="s">
@@ -14923,11 +14955,11 @@
       <c r="E170">
         <v>0</v>
       </c>
-      <c r="F170" s="11">
+      <c r="F170" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G170" s="10">
+      <c r="G170" s="8">
         <v>509.99999999999994</v>
       </c>
       <c r="H170">
@@ -14957,7 +14989,7 @@
       <c r="P170">
         <v>255</v>
       </c>
-      <c r="Q170" s="7">
+      <c r="Q170" s="6">
         <v>9</v>
       </c>
       <c r="R170" s="2" t="s">
@@ -15007,11 +15039,11 @@
       <c r="E171">
         <v>0</v>
       </c>
-      <c r="F171" s="11">
+      <c r="F171" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G171" s="10">
+      <c r="G171" s="8">
         <v>132</v>
       </c>
       <c r="H171">
@@ -15041,7 +15073,7 @@
       <c r="P171">
         <v>255</v>
       </c>
-      <c r="Q171" s="7">
+      <c r="Q171" s="6">
         <v>2</v>
       </c>
       <c r="R171" s="2" t="s">
@@ -15091,11 +15123,11 @@
       <c r="E172">
         <v>74</v>
       </c>
-      <c r="F172" s="11">
+      <c r="F172" s="9">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="G172" s="10">
+      <c r="G172" s="8">
         <v>363</v>
       </c>
       <c r="H172">
@@ -15125,7 +15157,7 @@
       <c r="P172">
         <v>255</v>
       </c>
-      <c r="Q172" s="7">
+      <c r="Q172" s="6">
         <v>254</v>
       </c>
       <c r="R172" s="2" t="s">
@@ -15175,11 +15207,11 @@
       <c r="E173">
         <v>0</v>
       </c>
-      <c r="F173" s="11">
+      <c r="F173" s="9">
         <f t="shared" si="2"/>
         <v>1032</v>
       </c>
-      <c r="G173" s="10">
+      <c r="G173" s="8">
         <v>23</v>
       </c>
       <c r="H173">
@@ -15209,7 +15241,7 @@
       <c r="P173">
         <v>255</v>
       </c>
-      <c r="Q173" s="7">
+      <c r="Q173" s="6">
         <v>255</v>
       </c>
       <c r="R173" s="2" t="s">
@@ -15259,11 +15291,11 @@
       <c r="E174">
         <v>44</v>
       </c>
-      <c r="F174" s="11">
+      <c r="F174" s="9">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="G174" s="10">
+      <c r="G174" s="8">
         <v>2</v>
       </c>
       <c r="H174">
@@ -15293,7 +15325,7 @@
       <c r="P174">
         <v>255</v>
       </c>
-      <c r="Q174" s="7">
+      <c r="Q174" s="6">
         <v>35</v>
       </c>
       <c r="R174" s="2" t="s">
@@ -15343,11 +15375,11 @@
       <c r="E175">
         <v>0</v>
       </c>
-      <c r="F175" s="11">
+      <c r="F175" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G175" s="10">
+      <c r="G175" s="8">
         <v>2</v>
       </c>
       <c r="H175">
@@ -15377,7 +15409,7 @@
       <c r="P175">
         <v>27</v>
       </c>
-      <c r="Q175" s="7">
+      <c r="Q175" s="6">
         <v>53</v>
       </c>
       <c r="R175" s="2" t="s">
@@ -15427,11 +15459,11 @@
       <c r="E176">
         <v>597</v>
       </c>
-      <c r="F176" s="11">
+      <c r="F176" s="9">
         <f t="shared" si="2"/>
         <v>756</v>
       </c>
-      <c r="G176" s="10">
+      <c r="G176" s="8">
         <v>1</v>
       </c>
       <c r="H176">
@@ -15461,7 +15493,7 @@
       <c r="P176">
         <v>255</v>
       </c>
-      <c r="Q176" s="7">
+      <c r="Q176" s="6">
         <v>25</v>
       </c>
       <c r="R176" s="2" t="s">
@@ -15511,11 +15543,11 @@
       <c r="E177">
         <v>0</v>
       </c>
-      <c r="F177" s="11">
+      <c r="F177" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G177" s="10">
+      <c r="G177" s="8">
         <v>244</v>
       </c>
       <c r="H177">
@@ -15545,7 +15577,7 @@
       <c r="P177">
         <v>255</v>
       </c>
-      <c r="Q177" s="7">
+      <c r="Q177" s="6">
         <v>1</v>
       </c>
       <c r="R177" s="2" t="s">
@@ -15595,11 +15627,11 @@
       <c r="E178">
         <v>0</v>
       </c>
-      <c r="F178" s="11">
+      <c r="F178" s="9">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="G178" s="10">
+      <c r="G178" s="8">
         <v>1</v>
       </c>
       <c r="H178">
@@ -15629,7 +15661,7 @@
       <c r="P178">
         <v>1</v>
       </c>
-      <c r="Q178" s="7">
+      <c r="Q178" s="6">
         <v>110</v>
       </c>
       <c r="R178" s="2" t="s">
@@ -15679,11 +15711,11 @@
       <c r="E179">
         <v>174</v>
       </c>
-      <c r="F179" s="11">
+      <c r="F179" s="9">
         <f t="shared" si="2"/>
         <v>294</v>
       </c>
-      <c r="G179" s="10">
+      <c r="G179" s="8">
         <v>2</v>
       </c>
       <c r="H179">
@@ -15713,7 +15745,7 @@
       <c r="P179">
         <v>255</v>
       </c>
-      <c r="Q179" s="7">
+      <c r="Q179" s="6">
         <v>224</v>
       </c>
       <c r="R179" s="2" t="s">
@@ -15763,11 +15795,11 @@
       <c r="E180">
         <v>0</v>
       </c>
-      <c r="F180" s="11">
+      <c r="F180" s="9">
         <f t="shared" si="2"/>
         <v>687</v>
       </c>
-      <c r="G180" s="10">
+      <c r="G180" s="8">
         <v>1</v>
       </c>
       <c r="H180">
@@ -15797,7 +15829,7 @@
       <c r="P180">
         <v>6</v>
       </c>
-      <c r="Q180" s="7">
+      <c r="Q180" s="6">
         <v>1</v>
       </c>
       <c r="R180" s="2" t="s">
@@ -15847,11 +15879,11 @@
       <c r="E181">
         <v>112</v>
       </c>
-      <c r="F181" s="11">
+      <c r="F181" s="9">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="G181" s="10">
+      <c r="G181" s="8">
         <v>1</v>
       </c>
       <c r="H181">
@@ -15881,7 +15913,7 @@
       <c r="P181">
         <v>255</v>
       </c>
-      <c r="Q181" s="7">
+      <c r="Q181" s="6">
         <v>243</v>
       </c>
       <c r="R181" s="2" t="s">
@@ -15931,11 +15963,11 @@
       <c r="E182">
         <v>0</v>
       </c>
-      <c r="F182" s="11">
+      <c r="F182" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G182" s="10">
+      <c r="G182" s="8">
         <v>297</v>
       </c>
       <c r="H182">
@@ -15965,7 +15997,7 @@
       <c r="P182">
         <v>255</v>
       </c>
-      <c r="Q182" s="7">
+      <c r="Q182" s="6">
         <v>8</v>
       </c>
       <c r="R182" s="2" t="s">
@@ -16015,11 +16047,11 @@
       <c r="E183">
         <v>0</v>
       </c>
-      <c r="F183" s="11">
+      <c r="F183" s="9">
         <f t="shared" si="2"/>
         <v>1008</v>
       </c>
-      <c r="G183" s="10">
+      <c r="G183" s="8">
         <v>173</v>
       </c>
       <c r="H183">
@@ -16049,7 +16081,7 @@
       <c r="P183">
         <v>255</v>
       </c>
-      <c r="Q183" s="7">
+      <c r="Q183" s="6">
         <v>255</v>
       </c>
       <c r="R183" s="2" t="s">
@@ -16099,11 +16131,11 @@
       <c r="E184">
         <v>157</v>
       </c>
-      <c r="F184" s="11">
+      <c r="F184" s="9">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="G184" s="10">
+      <c r="G184" s="8">
         <v>1</v>
       </c>
       <c r="H184">
@@ -16133,7 +16165,7 @@
       <c r="P184">
         <v>56</v>
       </c>
-      <c r="Q184" s="7">
+      <c r="Q184" s="6">
         <v>29</v>
       </c>
       <c r="R184" s="2" t="s">
@@ -16183,11 +16215,11 @@
       <c r="E185">
         <v>128</v>
       </c>
-      <c r="F185" s="11">
+      <c r="F185" s="9">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="G185" s="10">
+      <c r="G185" s="8">
         <v>143</v>
       </c>
       <c r="H185">
@@ -16217,7 +16249,7 @@
       <c r="P185">
         <v>255</v>
       </c>
-      <c r="Q185" s="7">
+      <c r="Q185" s="6">
         <v>255</v>
       </c>
       <c r="R185" s="2" t="s">
@@ -16267,11 +16299,11 @@
       <c r="E186">
         <v>146</v>
       </c>
-      <c r="F186" s="11">
+      <c r="F186" s="9">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G186" s="10">
+      <c r="G186" s="8">
         <v>2</v>
       </c>
       <c r="H186">
@@ -16301,7 +16333,7 @@
       <c r="P186">
         <v>255</v>
       </c>
-      <c r="Q186" s="7">
+      <c r="Q186" s="6">
         <v>255</v>
       </c>
       <c r="R186" s="2" t="s">
@@ -16351,11 +16383,11 @@
       <c r="E187">
         <v>0</v>
       </c>
-      <c r="F187" s="11">
+      <c r="F187" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G187" s="10">
+      <c r="G187" s="8">
         <v>55.000000000000007</v>
       </c>
       <c r="H187">
@@ -16385,7 +16417,7 @@
       <c r="P187">
         <v>255</v>
       </c>
-      <c r="Q187" s="7">
+      <c r="Q187" s="6">
         <v>255</v>
       </c>
       <c r="R187" s="2" t="s">
@@ -16435,11 +16467,11 @@
       <c r="E188">
         <v>8314</v>
       </c>
-      <c r="F188" s="11">
+      <c r="F188" s="9">
         <f t="shared" si="2"/>
         <v>62854</v>
       </c>
-      <c r="G188" s="10">
+      <c r="G188" s="8">
         <v>4</v>
       </c>
       <c r="H188">
@@ -16469,7 +16501,7 @@
       <c r="P188">
         <v>255</v>
       </c>
-      <c r="Q188" s="7">
+      <c r="Q188" s="6">
         <v>254</v>
       </c>
       <c r="R188" s="2" t="s">
@@ -16519,11 +16551,11 @@
       <c r="E189">
         <v>2507</v>
       </c>
-      <c r="F189" s="11">
+      <c r="F189" s="9">
         <f t="shared" si="2"/>
         <v>2812</v>
       </c>
-      <c r="G189" s="10">
+      <c r="G189" s="8">
         <v>4</v>
       </c>
       <c r="H189">
@@ -16553,7 +16585,7 @@
       <c r="P189">
         <v>255</v>
       </c>
-      <c r="Q189" s="7">
+      <c r="Q189" s="6">
         <v>255</v>
       </c>
       <c r="R189" s="2" t="s">
@@ -16603,11 +16635,11 @@
       <c r="E190">
         <v>0</v>
       </c>
-      <c r="F190" s="11">
+      <c r="F190" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G190" s="10">
+      <c r="G190" s="8">
         <v>129</v>
       </c>
       <c r="H190">
@@ -16637,7 +16669,7 @@
       <c r="P190">
         <v>255</v>
       </c>
-      <c r="Q190" s="7">
+      <c r="Q190" s="6">
         <v>1</v>
       </c>
       <c r="R190" s="2" t="s">
@@ -16687,11 +16719,11 @@
       <c r="E191">
         <v>0</v>
       </c>
-      <c r="F191" s="11">
+      <c r="F191" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G191" s="10">
+      <c r="G191" s="8">
         <v>171</v>
       </c>
       <c r="H191">
@@ -16721,7 +16753,7 @@
       <c r="P191">
         <v>255</v>
       </c>
-      <c r="Q191" s="7">
+      <c r="Q191" s="6">
         <v>5</v>
       </c>
       <c r="R191" s="2" t="s">
@@ -16771,11 +16803,11 @@
       <c r="E192">
         <v>8314</v>
       </c>
-      <c r="F192" s="11">
+      <c r="F192" s="9">
         <f t="shared" si="2"/>
         <v>62854</v>
       </c>
-      <c r="G192" s="10">
+      <c r="G192" s="8">
         <v>3</v>
       </c>
       <c r="H192">
@@ -16805,7 +16837,7 @@
       <c r="P192">
         <v>255</v>
       </c>
-      <c r="Q192" s="7">
+      <c r="Q192" s="6">
         <v>255</v>
       </c>
       <c r="R192" s="2" t="s">
@@ -16855,11 +16887,11 @@
       <c r="E193">
         <v>44</v>
       </c>
-      <c r="F193" s="11">
+      <c r="F193" s="9">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="G193" s="10">
+      <c r="G193" s="8">
         <v>1</v>
       </c>
       <c r="H193">
@@ -16889,7 +16921,7 @@
       <c r="P193">
         <v>251</v>
       </c>
-      <c r="Q193" s="7">
+      <c r="Q193" s="6">
         <v>6</v>
       </c>
       <c r="R193" s="2" t="s">
@@ -16939,11 +16971,11 @@
       <c r="E194">
         <v>0</v>
       </c>
-      <c r="F194" s="11">
+      <c r="F194" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G194" s="10">
+      <c r="G194" s="8">
         <v>212</v>
       </c>
       <c r="H194">
@@ -16973,7 +17005,7 @@
       <c r="P194">
         <v>255</v>
       </c>
-      <c r="Q194" s="7">
+      <c r="Q194" s="6">
         <v>17</v>
       </c>
       <c r="R194" s="2" t="s">
@@ -17023,11 +17055,11 @@
       <c r="E195">
         <v>1</v>
       </c>
-      <c r="F195" s="11">
+      <c r="F195" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G195" s="10">
+      <c r="G195" s="8">
         <v>81</v>
       </c>
       <c r="H195">
@@ -17057,7 +17089,7 @@
       <c r="P195">
         <v>255</v>
       </c>
-      <c r="Q195" s="7">
+      <c r="Q195" s="6">
         <v>1</v>
       </c>
       <c r="R195" s="2" t="s">
@@ -17107,11 +17139,11 @@
       <c r="E196">
         <v>0</v>
       </c>
-      <c r="F196" s="11">
+      <c r="F196" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G196" s="10">
+      <c r="G196" s="8">
         <v>1</v>
       </c>
       <c r="H196">
@@ -17141,7 +17173,7 @@
       <c r="P196">
         <v>7</v>
       </c>
-      <c r="Q196" s="7">
+      <c r="Q196" s="6">
         <v>29</v>
       </c>
       <c r="R196" s="2" t="s">
@@ -17191,11 +17223,11 @@
       <c r="E197">
         <v>0</v>
       </c>
-      <c r="F197" s="11">
+      <c r="F197" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G197" s="10">
+      <c r="G197" s="8">
         <v>511.00000000000006</v>
       </c>
       <c r="H197">
@@ -17225,7 +17257,7 @@
       <c r="P197">
         <v>255</v>
       </c>
-      <c r="Q197" s="7">
+      <c r="Q197" s="6">
         <v>1</v>
       </c>
       <c r="R197" s="2" t="s">
@@ -17275,11 +17307,11 @@
       <c r="E198">
         <v>0</v>
       </c>
-      <c r="F198" s="11">
+      <c r="F198" s="9">
         <f t="shared" ref="F198:F261" si="3">+D198+E198</f>
         <v>0</v>
       </c>
-      <c r="G198" s="10">
+      <c r="G198" s="8">
         <v>237</v>
       </c>
       <c r="H198">
@@ -17309,7 +17341,7 @@
       <c r="P198">
         <v>255</v>
       </c>
-      <c r="Q198" s="7">
+      <c r="Q198" s="6">
         <v>18</v>
       </c>
       <c r="R198" s="2" t="s">
@@ -17359,11 +17391,11 @@
       <c r="E199">
         <v>128</v>
       </c>
-      <c r="F199" s="11">
+      <c r="F199" s="9">
         <f t="shared" si="3"/>
         <v>173</v>
       </c>
-      <c r="G199" s="10">
+      <c r="G199" s="8">
         <v>103</v>
       </c>
       <c r="H199">
@@ -17393,7 +17425,7 @@
       <c r="P199">
         <v>255</v>
       </c>
-      <c r="Q199" s="7">
+      <c r="Q199" s="6">
         <v>255</v>
       </c>
       <c r="R199" s="2" t="s">
@@ -17443,11 +17475,11 @@
       <c r="E200">
         <v>93</v>
       </c>
-      <c r="F200" s="11">
+      <c r="F200" s="9">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="G200" s="10">
+      <c r="G200" s="8">
         <v>1</v>
       </c>
       <c r="H200">
@@ -17477,7 +17509,7 @@
       <c r="P200">
         <v>255</v>
       </c>
-      <c r="Q200" s="7">
+      <c r="Q200" s="6">
         <v>248</v>
       </c>
       <c r="R200" s="2" t="s">
@@ -17527,11 +17559,11 @@
       <c r="E201">
         <v>0</v>
       </c>
-      <c r="F201" s="11">
+      <c r="F201" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G201" s="10">
+      <c r="G201" s="8">
         <v>284</v>
       </c>
       <c r="H201">
@@ -17561,7 +17593,7 @@
       <c r="P201">
         <v>255</v>
       </c>
-      <c r="Q201" s="7">
+      <c r="Q201" s="6">
         <v>6</v>
       </c>
       <c r="R201" s="2" t="s">
@@ -17611,11 +17643,11 @@
       <c r="E202">
         <v>93</v>
       </c>
-      <c r="F202" s="11">
+      <c r="F202" s="9">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="G202" s="10">
+      <c r="G202" s="8">
         <v>1</v>
       </c>
       <c r="H202">
@@ -17645,7 +17677,7 @@
       <c r="P202">
         <v>212</v>
       </c>
-      <c r="Q202" s="7">
+      <c r="Q202" s="6">
         <v>193</v>
       </c>
       <c r="R202" s="2" t="s">
@@ -17695,11 +17727,11 @@
       <c r="E203">
         <v>93</v>
       </c>
-      <c r="F203" s="11">
+      <c r="F203" s="9">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="G203" s="10">
+      <c r="G203" s="8">
         <v>1</v>
       </c>
       <c r="H203">
@@ -17729,7 +17761,7 @@
       <c r="P203">
         <v>255</v>
       </c>
-      <c r="Q203" s="7">
+      <c r="Q203" s="6">
         <v>248</v>
       </c>
       <c r="R203" s="2" t="s">
@@ -17779,11 +17811,11 @@
       <c r="E204">
         <v>0</v>
       </c>
-      <c r="F204" s="11">
+      <c r="F204" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G204" s="10">
+      <c r="G204" s="8">
         <v>1</v>
       </c>
       <c r="H204">
@@ -17813,7 +17845,7 @@
       <c r="P204">
         <v>255</v>
       </c>
-      <c r="Q204" s="7">
+      <c r="Q204" s="6">
         <v>28</v>
       </c>
       <c r="R204" s="2" t="s">
@@ -17863,11 +17895,11 @@
       <c r="E205">
         <v>0</v>
       </c>
-      <c r="F205" s="11">
+      <c r="F205" s="9">
         <f t="shared" si="3"/>
         <v>520</v>
       </c>
-      <c r="G205" s="10">
+      <c r="G205" s="8">
         <v>509</v>
       </c>
       <c r="H205">
@@ -17897,7 +17929,7 @@
       <c r="P205">
         <v>114</v>
       </c>
-      <c r="Q205" s="7">
+      <c r="Q205" s="6">
         <v>116</v>
       </c>
       <c r="R205" s="2" t="s">
@@ -17947,11 +17979,11 @@
       <c r="E206">
         <v>0</v>
       </c>
-      <c r="F206" s="11">
+      <c r="F206" s="9">
         <f t="shared" si="3"/>
         <v>552</v>
       </c>
-      <c r="G206" s="10">
+      <c r="G206" s="8">
         <v>1</v>
       </c>
       <c r="H206">
@@ -17981,7 +18013,7 @@
       <c r="P206">
         <v>255</v>
       </c>
-      <c r="Q206" s="7">
+      <c r="Q206" s="6">
         <v>1</v>
       </c>
       <c r="R206" s="2" t="s">
@@ -18031,11 +18063,11 @@
       <c r="E207">
         <v>0</v>
       </c>
-      <c r="F207" s="11">
+      <c r="F207" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G207" s="10">
+      <c r="G207" s="8">
         <v>2</v>
       </c>
       <c r="H207">
@@ -18065,7 +18097,7 @@
       <c r="P207">
         <v>41</v>
       </c>
-      <c r="Q207" s="7">
+      <c r="Q207" s="6">
         <v>57</v>
       </c>
       <c r="R207" s="2" t="s">
@@ -18115,11 +18147,11 @@
       <c r="E208">
         <v>81</v>
       </c>
-      <c r="F208" s="11">
+      <c r="F208" s="9">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="G208" s="10">
+      <c r="G208" s="8">
         <v>128</v>
       </c>
       <c r="H208">
@@ -18149,7 +18181,7 @@
       <c r="P208">
         <v>255</v>
       </c>
-      <c r="Q208" s="7">
+      <c r="Q208" s="6">
         <v>255</v>
       </c>
       <c r="R208" s="2" t="s">
@@ -18199,11 +18231,11 @@
       <c r="E209">
         <v>0</v>
       </c>
-      <c r="F209" s="11">
+      <c r="F209" s="9">
         <f t="shared" si="3"/>
         <v>1032</v>
       </c>
-      <c r="G209" s="10">
+      <c r="G209" s="8">
         <v>113.99999999999999</v>
       </c>
       <c r="H209">
@@ -18233,7 +18265,7 @@
       <c r="P209">
         <v>255</v>
       </c>
-      <c r="Q209" s="7">
+      <c r="Q209" s="6">
         <v>61</v>
       </c>
       <c r="R209" s="2" t="s">
@@ -18283,11 +18315,11 @@
       <c r="E210">
         <v>0</v>
       </c>
-      <c r="F210" s="11">
+      <c r="F210" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G210" s="10">
+      <c r="G210" s="8">
         <v>264</v>
       </c>
       <c r="H210">
@@ -18317,7 +18349,7 @@
       <c r="P210">
         <v>255</v>
       </c>
-      <c r="Q210" s="7">
+      <c r="Q210" s="6">
         <v>8</v>
       </c>
       <c r="R210" s="2" t="s">
@@ -18367,11 +18399,11 @@
       <c r="E211">
         <v>174</v>
       </c>
-      <c r="F211" s="11">
+      <c r="F211" s="9">
         <f t="shared" si="3"/>
         <v>298</v>
       </c>
-      <c r="G211" s="10">
+      <c r="G211" s="8">
         <v>1</v>
       </c>
       <c r="H211">
@@ -18401,7 +18433,7 @@
       <c r="P211">
         <v>255</v>
       </c>
-      <c r="Q211" s="7">
+      <c r="Q211" s="6">
         <v>169</v>
       </c>
       <c r="R211" s="2" t="s">
@@ -18451,11 +18483,11 @@
       <c r="E212">
         <v>15</v>
       </c>
-      <c r="F212" s="11">
+      <c r="F212" s="9">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="G212" s="10">
+      <c r="G212" s="8">
         <v>1</v>
       </c>
       <c r="H212">
@@ -18485,7 +18517,7 @@
       <c r="P212">
         <v>255</v>
       </c>
-      <c r="Q212" s="7">
+      <c r="Q212" s="6">
         <v>40</v>
       </c>
       <c r="R212" s="2" t="s">
@@ -18535,11 +18567,11 @@
       <c r="E213">
         <v>0</v>
       </c>
-      <c r="F213" s="11">
+      <c r="F213" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G213" s="10">
+      <c r="G213" s="8">
         <v>279</v>
       </c>
       <c r="H213">
@@ -18569,7 +18601,7 @@
       <c r="P213">
         <v>255</v>
       </c>
-      <c r="Q213" s="7">
+      <c r="Q213" s="6">
         <v>2</v>
       </c>
       <c r="R213" s="2" t="s">
@@ -18619,11 +18651,11 @@
       <c r="E214">
         <v>0</v>
       </c>
-      <c r="F214" s="11">
+      <c r="F214" s="9">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G214" s="10">
+      <c r="G214" s="8">
         <v>1</v>
       </c>
       <c r="H214">
@@ -18653,7 +18685,7 @@
       <c r="P214">
         <v>255</v>
       </c>
-      <c r="Q214" s="7">
+      <c r="Q214" s="6">
         <v>21</v>
       </c>
       <c r="R214" s="2" t="s">
@@ -18703,11 +18735,11 @@
       <c r="E215">
         <v>0</v>
       </c>
-      <c r="F215" s="11">
+      <c r="F215" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G215" s="10">
+      <c r="G215" s="8">
         <v>1</v>
       </c>
       <c r="H215">
@@ -18737,7 +18769,7 @@
       <c r="P215">
         <v>1</v>
       </c>
-      <c r="Q215" s="7">
+      <c r="Q215" s="6">
         <v>65</v>
       </c>
       <c r="R215" s="2" t="s">
@@ -18787,11 +18819,11 @@
       <c r="E216">
         <v>0</v>
       </c>
-      <c r="F216" s="11">
+      <c r="F216" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G216" s="10">
+      <c r="G216" s="8">
         <v>1</v>
       </c>
       <c r="H216">
@@ -18821,7 +18853,7 @@
       <c r="P216">
         <v>118</v>
       </c>
-      <c r="Q216" s="7">
+      <c r="Q216" s="6">
         <v>17</v>
       </c>
       <c r="R216" s="2" t="s">
@@ -18871,11 +18903,11 @@
       <c r="E217">
         <v>0</v>
       </c>
-      <c r="F217" s="11">
+      <c r="F217" s="9">
         <f t="shared" si="3"/>
         <v>1032</v>
       </c>
-      <c r="G217" s="10">
+      <c r="G217" s="8">
         <v>34</v>
       </c>
       <c r="H217">
@@ -18905,7 +18937,7 @@
       <c r="P217">
         <v>255</v>
       </c>
-      <c r="Q217" s="7">
+      <c r="Q217" s="6">
         <v>255</v>
       </c>
       <c r="R217" s="2" t="s">
@@ -18955,11 +18987,11 @@
       <c r="E218">
         <v>1</v>
       </c>
-      <c r="F218" s="11">
+      <c r="F218" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G218" s="10">
+      <c r="G218" s="8">
         <v>28.999999999999996</v>
       </c>
       <c r="H218">
@@ -18989,7 +19021,7 @@
       <c r="P218">
         <v>255</v>
       </c>
-      <c r="Q218" s="7">
+      <c r="Q218" s="6">
         <v>1</v>
       </c>
       <c r="R218" s="2" t="s">
@@ -19039,11 +19071,11 @@
       <c r="E219">
         <v>7919</v>
       </c>
-      <c r="F219" s="11">
+      <c r="F219" s="9">
         <f t="shared" si="3"/>
         <v>12128</v>
       </c>
-      <c r="G219" s="10">
+      <c r="G219" s="8">
         <v>1</v>
       </c>
       <c r="H219">
@@ -19073,7 +19105,7 @@
       <c r="P219">
         <v>113</v>
       </c>
-      <c r="Q219" s="7">
+      <c r="Q219" s="6">
         <v>2</v>
       </c>
       <c r="R219" s="2" t="s">
@@ -19123,11 +19155,11 @@
       <c r="E220">
         <v>0</v>
       </c>
-      <c r="F220" s="11">
+      <c r="F220" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G220" s="10">
+      <c r="G220" s="8">
         <v>1</v>
       </c>
       <c r="H220">
@@ -19157,7 +19189,7 @@
       <c r="P220">
         <v>168</v>
       </c>
-      <c r="Q220" s="7">
+      <c r="Q220" s="6">
         <v>1</v>
       </c>
       <c r="R220" s="2" t="s">
@@ -19207,11 +19239,11 @@
       <c r="E221">
         <v>0</v>
       </c>
-      <c r="F221" s="11">
+      <c r="F221" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G221" s="10">
+      <c r="G221" s="8">
         <v>131</v>
       </c>
       <c r="H221">
@@ -19241,7 +19273,7 @@
       <c r="P221">
         <v>255</v>
       </c>
-      <c r="Q221" s="7">
+      <c r="Q221" s="6">
         <v>2</v>
       </c>
       <c r="R221" s="2" t="s">
@@ -19291,11 +19323,11 @@
       <c r="E222">
         <v>0</v>
       </c>
-      <c r="F222" s="11">
+      <c r="F222" s="9">
         <f t="shared" si="3"/>
         <v>40008</v>
       </c>
-      <c r="G222" s="10">
+      <c r="G222" s="8">
         <v>3</v>
       </c>
       <c r="H222">
@@ -19325,7 +19357,7 @@
       <c r="P222">
         <v>102</v>
       </c>
-      <c r="Q222" s="7">
+      <c r="Q222" s="6">
         <v>102</v>
       </c>
       <c r="R222" s="2" t="s">
@@ -19375,11 +19407,11 @@
       <c r="E223">
         <v>0</v>
       </c>
-      <c r="F223" s="11">
+      <c r="F223" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G223" s="10">
+      <c r="G223" s="8">
         <v>1</v>
       </c>
       <c r="H223">
@@ -19409,7 +19441,7 @@
       <c r="P223">
         <v>147</v>
       </c>
-      <c r="Q223" s="7">
+      <c r="Q223" s="6">
         <v>1</v>
       </c>
       <c r="R223" s="2" t="s">
@@ -19459,11 +19491,11 @@
       <c r="E224">
         <v>44</v>
       </c>
-      <c r="F224" s="11">
+      <c r="F224" s="9">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="G224" s="10">
+      <c r="G224" s="8">
         <v>105</v>
       </c>
       <c r="H224">
@@ -19493,7 +19525,7 @@
       <c r="P224">
         <v>255</v>
       </c>
-      <c r="Q224" s="7">
+      <c r="Q224" s="6">
         <v>255</v>
       </c>
       <c r="R224" s="2" t="s">
@@ -19543,11 +19575,11 @@
       <c r="E225">
         <v>0</v>
       </c>
-      <c r="F225" s="11">
+      <c r="F225" s="9">
         <f t="shared" si="3"/>
         <v>1032</v>
       </c>
-      <c r="G225" s="10">
+      <c r="G225" s="8">
         <v>22</v>
       </c>
       <c r="H225">
@@ -19577,7 +19609,7 @@
       <c r="P225">
         <v>255</v>
       </c>
-      <c r="Q225" s="7">
+      <c r="Q225" s="6">
         <v>255</v>
       </c>
       <c r="R225" s="2" t="s">
@@ -19627,11 +19659,11 @@
       <c r="E226">
         <v>0</v>
       </c>
-      <c r="F226" s="11">
+      <c r="F226" s="9">
         <f t="shared" si="3"/>
         <v>56504</v>
       </c>
-      <c r="G226" s="10">
+      <c r="G226" s="8">
         <v>11</v>
       </c>
       <c r="H226">
@@ -19661,7 +19693,7 @@
       <c r="P226">
         <v>255</v>
       </c>
-      <c r="Q226" s="7">
+      <c r="Q226" s="6">
         <v>242</v>
       </c>
       <c r="R226" s="2" t="s">
@@ -19711,11 +19743,11 @@
       <c r="E227">
         <v>93</v>
       </c>
-      <c r="F227" s="11">
+      <c r="F227" s="9">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="G227" s="10">
+      <c r="G227" s="8">
         <v>1</v>
       </c>
       <c r="H227">
@@ -19745,7 +19777,7 @@
       <c r="P227">
         <v>255</v>
       </c>
-      <c r="Q227" s="7">
+      <c r="Q227" s="6">
         <v>231</v>
       </c>
       <c r="R227" s="2" t="s">
@@ -19795,11 +19827,11 @@
       <c r="E228">
         <v>44</v>
       </c>
-      <c r="F228" s="11">
+      <c r="F228" s="9">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="G228" s="10">
+      <c r="G228" s="8">
         <v>3</v>
       </c>
       <c r="H228">
@@ -19829,7 +19861,7 @@
       <c r="P228">
         <v>105</v>
       </c>
-      <c r="Q228" s="7">
+      <c r="Q228" s="6">
         <v>59</v>
       </c>
       <c r="R228" s="2" t="s">
@@ -19879,11 +19911,11 @@
       <c r="E229">
         <v>44</v>
       </c>
-      <c r="F229" s="11">
+      <c r="F229" s="9">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="G229" s="10">
+      <c r="G229" s="8">
         <v>2</v>
       </c>
       <c r="H229">
@@ -19913,7 +19945,7 @@
       <c r="P229">
         <v>255</v>
       </c>
-      <c r="Q229" s="7">
+      <c r="Q229" s="6">
         <v>229</v>
       </c>
       <c r="R229" s="2" t="s">
@@ -19963,11 +19995,11 @@
       <c r="E230">
         <v>174</v>
       </c>
-      <c r="F230" s="11">
+      <c r="F230" s="9">
         <f t="shared" si="3"/>
         <v>299</v>
       </c>
-      <c r="G230" s="10">
+      <c r="G230" s="8">
         <v>1</v>
       </c>
       <c r="H230">
@@ -19997,7 +20029,7 @@
       <c r="P230">
         <v>255</v>
       </c>
-      <c r="Q230" s="7">
+      <c r="Q230" s="6">
         <v>133</v>
       </c>
       <c r="R230" s="2" t="s">
@@ -20047,11 +20079,11 @@
       <c r="E231">
         <v>8314</v>
       </c>
-      <c r="F231" s="11">
+      <c r="F231" s="9">
         <f t="shared" si="3"/>
         <v>62854</v>
       </c>
-      <c r="G231" s="10">
+      <c r="G231" s="8">
         <v>4</v>
       </c>
       <c r="H231">
@@ -20081,7 +20113,7 @@
       <c r="P231">
         <v>255</v>
       </c>
-      <c r="Q231" s="7">
+      <c r="Q231" s="6">
         <v>254</v>
       </c>
       <c r="R231" s="2" t="s">
@@ -20131,11 +20163,11 @@
       <c r="E232">
         <v>0</v>
       </c>
-      <c r="F232" s="11">
+      <c r="F232" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G232" s="10">
+      <c r="G232" s="8">
         <v>1</v>
       </c>
       <c r="H232">
@@ -20165,7 +20197,7 @@
       <c r="P232">
         <v>12</v>
       </c>
-      <c r="Q232" s="7">
+      <c r="Q232" s="6">
         <v>19</v>
       </c>
       <c r="R232" s="2" t="s">
@@ -20215,11 +20247,11 @@
       <c r="E233">
         <v>41</v>
       </c>
-      <c r="F233" s="11">
+      <c r="F233" s="9">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="G233" s="10">
+      <c r="G233" s="8">
         <v>2</v>
       </c>
       <c r="H233">
@@ -20249,7 +20281,7 @@
       <c r="P233">
         <v>255</v>
       </c>
-      <c r="Q233" s="7">
+      <c r="Q233" s="6">
         <v>254</v>
       </c>
       <c r="R233" s="2" t="s">
@@ -20299,11 +20331,11 @@
       <c r="E234">
         <v>0</v>
       </c>
-      <c r="F234" s="11">
+      <c r="F234" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G234" s="10">
+      <c r="G234" s="8">
         <v>120</v>
       </c>
       <c r="H234">
@@ -20333,7 +20365,7 @@
       <c r="P234">
         <v>255</v>
       </c>
-      <c r="Q234" s="7">
+      <c r="Q234" s="6">
         <v>8</v>
       </c>
       <c r="R234" s="2" t="s">
@@ -20383,11 +20415,11 @@
       <c r="E235">
         <v>46</v>
       </c>
-      <c r="F235" s="11">
+      <c r="F235" s="9">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="G235" s="10">
+      <c r="G235" s="8">
         <v>505</v>
       </c>
       <c r="H235">
@@ -20417,7 +20449,7 @@
       <c r="P235">
         <v>255</v>
       </c>
-      <c r="Q235" s="7">
+      <c r="Q235" s="6">
         <v>255</v>
       </c>
       <c r="R235" s="2" t="s">
@@ -20467,11 +20499,11 @@
       <c r="E236">
         <v>15</v>
       </c>
-      <c r="F236" s="11">
+      <c r="F236" s="9">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="G236" s="10">
+      <c r="G236" s="8">
         <v>1</v>
       </c>
       <c r="H236">
@@ -20501,7 +20533,7 @@
       <c r="P236">
         <v>255</v>
       </c>
-      <c r="Q236" s="7">
+      <c r="Q236" s="6">
         <v>58</v>
       </c>
       <c r="R236" s="2" t="s">
@@ -20551,11 +20583,11 @@
       <c r="E237">
         <v>0</v>
       </c>
-      <c r="F237" s="11">
+      <c r="F237" s="9">
         <f t="shared" si="3"/>
         <v>57964</v>
       </c>
-      <c r="G237" s="10">
+      <c r="G237" s="8">
         <v>63</v>
       </c>
       <c r="H237">
@@ -20585,7 +20617,7 @@
       <c r="P237">
         <v>255</v>
       </c>
-      <c r="Q237" s="7">
+      <c r="Q237" s="6">
         <v>253</v>
       </c>
       <c r="R237" s="2" t="s">
@@ -20635,11 +20667,11 @@
       <c r="E238">
         <v>0</v>
       </c>
-      <c r="F238" s="11">
+      <c r="F238" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G238" s="10">
+      <c r="G238" s="8">
         <v>1</v>
       </c>
       <c r="H238">
@@ -20669,7 +20701,7 @@
       <c r="P238">
         <v>172</v>
       </c>
-      <c r="Q238" s="7">
+      <c r="Q238" s="6">
         <v>85</v>
       </c>
       <c r="R238" s="2" t="s">
@@ -20719,11 +20751,11 @@
       <c r="E239">
         <v>0</v>
       </c>
-      <c r="F239" s="11">
+      <c r="F239" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G239" s="10">
+      <c r="G239" s="8">
         <v>1</v>
       </c>
       <c r="H239">
@@ -20753,7 +20785,7 @@
       <c r="P239">
         <v>197</v>
       </c>
-      <c r="Q239" s="7">
+      <c r="Q239" s="6">
         <v>1</v>
       </c>
       <c r="R239" s="2" t="s">
@@ -20803,11 +20835,11 @@
       <c r="E240">
         <v>44</v>
       </c>
-      <c r="F240" s="11">
+      <c r="F240" s="9">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="G240" s="10">
+      <c r="G240" s="8">
         <v>1</v>
       </c>
       <c r="H240">
@@ -20837,7 +20869,7 @@
       <c r="P240">
         <v>255</v>
       </c>
-      <c r="Q240" s="7">
+      <c r="Q240" s="6">
         <v>240</v>
       </c>
       <c r="R240" s="2" t="s">
@@ -20887,11 +20919,11 @@
       <c r="E241">
         <v>0</v>
       </c>
-      <c r="F241" s="11">
+      <c r="F241" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G241" s="10">
+      <c r="G241" s="8">
         <v>110.00000000000001</v>
       </c>
       <c r="H241">
@@ -20921,7 +20953,7 @@
       <c r="P241">
         <v>255</v>
       </c>
-      <c r="Q241" s="7">
+      <c r="Q241" s="6">
         <v>1</v>
       </c>
       <c r="R241" s="2" t="s">
@@ -20971,11 +21003,11 @@
       <c r="E242">
         <v>0</v>
       </c>
-      <c r="F242" s="11">
+      <c r="F242" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G242" s="10">
+      <c r="G242" s="8">
         <v>81</v>
       </c>
       <c r="H242">
@@ -21005,7 +21037,7 @@
       <c r="P242">
         <v>255</v>
       </c>
-      <c r="Q242" s="7">
+      <c r="Q242" s="6">
         <v>255</v>
       </c>
       <c r="R242" s="2" t="s">
@@ -21055,11 +21087,11 @@
       <c r="E243">
         <v>0</v>
       </c>
-      <c r="F243" s="11">
+      <c r="F243" s="9">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="G243" s="10">
+      <c r="G243" s="8">
         <v>4</v>
       </c>
       <c r="H243">
@@ -21089,7 +21121,7 @@
       <c r="P243">
         <v>255</v>
       </c>
-      <c r="Q243" s="7">
+      <c r="Q243" s="6">
         <v>254</v>
       </c>
       <c r="R243" s="2" t="s">
@@ -21139,11 +21171,11 @@
       <c r="E244">
         <v>44</v>
       </c>
-      <c r="F244" s="11">
+      <c r="F244" s="9">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="G244" s="10">
+      <c r="G244" s="8">
         <v>1</v>
       </c>
       <c r="H244">
@@ -21173,7 +21205,7 @@
       <c r="P244">
         <v>255</v>
       </c>
-      <c r="Q244" s="7">
+      <c r="Q244" s="6">
         <v>95</v>
       </c>
       <c r="R244" s="2" t="s">
@@ -21223,11 +21255,11 @@
       <c r="E245">
         <v>0</v>
       </c>
-      <c r="F245" s="11">
+      <c r="F245" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G245" s="10">
+      <c r="G245" s="8">
         <v>1</v>
       </c>
       <c r="H245">
@@ -21257,7 +21289,7 @@
       <c r="P245">
         <v>1</v>
       </c>
-      <c r="Q245" s="7">
+      <c r="Q245" s="6">
         <v>1</v>
       </c>
       <c r="R245" s="2" t="s">
@@ -21307,11 +21339,11 @@
       <c r="E246">
         <v>0</v>
       </c>
-      <c r="F246" s="11">
+      <c r="F246" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G246" s="10">
+      <c r="G246" s="8">
         <v>99</v>
       </c>
       <c r="H246">
@@ -21341,7 +21373,7 @@
       <c r="P246">
         <v>255</v>
       </c>
-      <c r="Q246" s="7">
+      <c r="Q246" s="6">
         <v>255</v>
       </c>
       <c r="R246" s="2" t="s">
@@ -21391,11 +21423,11 @@
       <c r="E247">
         <v>93</v>
       </c>
-      <c r="F247" s="11">
+      <c r="F247" s="9">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="G247" s="10">
+      <c r="G247" s="8">
         <v>1</v>
       </c>
       <c r="H247">
@@ -21425,7 +21457,7 @@
       <c r="P247">
         <v>255</v>
       </c>
-      <c r="Q247" s="7">
+      <c r="Q247" s="6">
         <v>243</v>
       </c>
       <c r="R247" s="2" t="s">
@@ -21475,11 +21507,11 @@
       <c r="E248">
         <v>0</v>
       </c>
-      <c r="F248" s="11">
+      <c r="F248" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G248" s="10">
+      <c r="G248" s="8">
         <v>1</v>
       </c>
       <c r="H248">
@@ -21509,7 +21541,7 @@
       <c r="P248">
         <v>1</v>
       </c>
-      <c r="Q248" s="7">
+      <c r="Q248" s="6">
         <v>18</v>
       </c>
       <c r="R248" s="2" t="s">
@@ -21559,11 +21591,11 @@
       <c r="E249">
         <v>0</v>
       </c>
-      <c r="F249" s="11">
+      <c r="F249" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G249" s="10">
+      <c r="G249" s="8">
         <v>1</v>
       </c>
       <c r="H249">
@@ -21593,7 +21625,7 @@
       <c r="P249">
         <v>160</v>
       </c>
-      <c r="Q249" s="7">
+      <c r="Q249" s="6">
         <v>85</v>
       </c>
       <c r="R249" s="2" t="s">
@@ -21643,11 +21675,11 @@
       <c r="E250">
         <v>597</v>
       </c>
-      <c r="F250" s="11">
+      <c r="F250" s="9">
         <f t="shared" si="3"/>
         <v>757</v>
       </c>
-      <c r="G250" s="10">
+      <c r="G250" s="8">
         <v>3</v>
       </c>
       <c r="H250">
@@ -21677,7 +21709,7 @@
       <c r="P250">
         <v>255</v>
       </c>
-      <c r="Q250" s="7">
+      <c r="Q250" s="6">
         <v>1</v>
       </c>
       <c r="R250" s="2" t="s">
@@ -21727,11 +21759,11 @@
       <c r="E251">
         <v>0</v>
       </c>
-      <c r="F251" s="11">
+      <c r="F251" s="9">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="G251" s="10">
+      <c r="G251" s="8">
         <v>1</v>
       </c>
       <c r="H251">
@@ -21761,7 +21793,7 @@
       <c r="P251">
         <v>1</v>
       </c>
-      <c r="Q251" s="7">
+      <c r="Q251" s="6">
         <v>117</v>
       </c>
       <c r="R251" s="2" t="s">
@@ -21811,11 +21843,11 @@
       <c r="E252">
         <v>0</v>
       </c>
-      <c r="F252" s="11">
+      <c r="F252" s="9">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G252" s="10">
+      <c r="G252" s="8">
         <v>1</v>
       </c>
       <c r="H252">
@@ -21845,7 +21877,7 @@
       <c r="P252">
         <v>255</v>
       </c>
-      <c r="Q252" s="7">
+      <c r="Q252" s="6">
         <v>1</v>
       </c>
       <c r="R252" s="2" t="s">
@@ -21895,11 +21927,11 @@
       <c r="E253">
         <v>0</v>
       </c>
-      <c r="F253" s="11">
+      <c r="F253" s="9">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="G253" s="10">
+      <c r="G253" s="8">
         <v>4</v>
       </c>
       <c r="H253">
@@ -21929,7 +21961,7 @@
       <c r="P253">
         <v>255</v>
       </c>
-      <c r="Q253" s="7">
+      <c r="Q253" s="6">
         <v>254</v>
       </c>
       <c r="R253" s="2" t="s">
@@ -21979,11 +22011,11 @@
       <c r="E254">
         <v>174</v>
       </c>
-      <c r="F254" s="11">
+      <c r="F254" s="9">
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
-      <c r="G254" s="10">
+      <c r="G254" s="8">
         <v>1</v>
       </c>
       <c r="H254">
@@ -22013,7 +22045,7 @@
       <c r="P254">
         <v>255</v>
       </c>
-      <c r="Q254" s="7">
+      <c r="Q254" s="6">
         <v>81</v>
       </c>
       <c r="R254" s="2" t="s">
@@ -22063,11 +22095,11 @@
       <c r="E255">
         <v>8314</v>
       </c>
-      <c r="F255" s="11">
+      <c r="F255" s="9">
         <f t="shared" si="3"/>
         <v>62854</v>
       </c>
-      <c r="G255" s="10">
+      <c r="G255" s="8">
         <v>5</v>
       </c>
       <c r="H255">
@@ -22097,7 +22129,7 @@
       <c r="P255">
         <v>255</v>
       </c>
-      <c r="Q255" s="7">
+      <c r="Q255" s="6">
         <v>248</v>
       </c>
       <c r="R255" s="2" t="s">
@@ -22147,11 +22179,11 @@
       <c r="E256">
         <v>0</v>
       </c>
-      <c r="F256" s="11">
+      <c r="F256" s="9">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="G256" s="10">
+      <c r="G256" s="8">
         <v>5</v>
       </c>
       <c r="H256">
@@ -22181,7 +22213,7 @@
       <c r="P256">
         <v>255</v>
       </c>
-      <c r="Q256" s="7">
+      <c r="Q256" s="6">
         <v>254</v>
       </c>
       <c r="R256" s="2" t="s">
@@ -22231,11 +22263,11 @@
       <c r="E257">
         <v>0</v>
       </c>
-      <c r="F257" s="11">
+      <c r="F257" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G257" s="10">
+      <c r="G257" s="8">
         <v>263</v>
       </c>
       <c r="H257">
@@ -22265,7 +22297,7 @@
       <c r="P257">
         <v>255</v>
       </c>
-      <c r="Q257" s="7">
+      <c r="Q257" s="6">
         <v>17</v>
       </c>
       <c r="R257" s="2" t="s">
@@ -22315,11 +22347,11 @@
       <c r="E258">
         <v>0</v>
       </c>
-      <c r="F258" s="11">
+      <c r="F258" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G258" s="10">
+      <c r="G258" s="8">
         <v>114.99999999999999</v>
       </c>
       <c r="H258">
@@ -22349,7 +22381,7 @@
       <c r="P258">
         <v>255</v>
       </c>
-      <c r="Q258" s="7">
+      <c r="Q258" s="6">
         <v>3</v>
       </c>
       <c r="R258" s="2" t="s">
@@ -22399,11 +22431,11 @@
       <c r="E259">
         <v>3</v>
       </c>
-      <c r="F259" s="11">
+      <c r="F259" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G259" s="10">
+      <c r="G259" s="8">
         <v>1</v>
       </c>
       <c r="H259">
@@ -22433,7 +22465,7 @@
       <c r="P259">
         <v>255</v>
       </c>
-      <c r="Q259" s="7">
+      <c r="Q259" s="6">
         <v>10</v>
       </c>
       <c r="R259" s="2" t="s">
@@ -22483,11 +22515,11 @@
       <c r="E260">
         <v>174</v>
       </c>
-      <c r="F260" s="11">
+      <c r="F260" s="9">
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
-      <c r="G260" s="10">
+      <c r="G260" s="8">
         <v>1</v>
       </c>
       <c r="H260">
@@ -22517,7 +22549,7 @@
       <c r="P260">
         <v>255</v>
       </c>
-      <c r="Q260" s="7">
+      <c r="Q260" s="6">
         <v>248</v>
       </c>
       <c r="R260" s="2" t="s">
@@ -22567,11 +22599,11 @@
       <c r="E261">
         <v>0</v>
       </c>
-      <c r="F261" s="11">
+      <c r="F261" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G261" s="10">
+      <c r="G261" s="8">
         <v>413.99999999999994</v>
       </c>
       <c r="H261">
@@ -22601,7 +22633,7 @@
       <c r="P261">
         <v>255</v>
       </c>
-      <c r="Q261" s="7">
+      <c r="Q261" s="6">
         <v>1</v>
       </c>
       <c r="R261" s="2" t="s">
@@ -22651,11 +22683,11 @@
       <c r="E262">
         <v>93</v>
       </c>
-      <c r="F262" s="11">
+      <c r="F262" s="9">
         <f t="shared" ref="F262:F296" si="4">+D262+E262</f>
         <v>123</v>
       </c>
-      <c r="G262" s="10">
+      <c r="G262" s="8">
         <v>1</v>
       </c>
       <c r="H262">
@@ -22685,7 +22717,7 @@
       <c r="P262">
         <v>255</v>
       </c>
-      <c r="Q262" s="7">
+      <c r="Q262" s="6">
         <v>249</v>
       </c>
       <c r="R262" s="2" t="s">
@@ -22735,11 +22767,11 @@
       <c r="E263">
         <v>0</v>
       </c>
-      <c r="F263" s="11">
+      <c r="F263" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G263" s="10">
+      <c r="G263" s="8">
         <v>173</v>
       </c>
       <c r="H263">
@@ -22769,7 +22801,7 @@
       <c r="P263">
         <v>181</v>
       </c>
-      <c r="Q263" s="7">
+      <c r="Q263" s="6">
         <v>2</v>
       </c>
       <c r="R263" s="2" t="s">
@@ -22819,11 +22851,11 @@
       <c r="E264">
         <v>0</v>
       </c>
-      <c r="F264" s="11">
+      <c r="F264" s="9">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G264" s="10">
+      <c r="G264" s="8">
         <v>1</v>
       </c>
       <c r="H264">
@@ -22853,7 +22885,7 @@
       <c r="P264">
         <v>1</v>
       </c>
-      <c r="Q264" s="7">
+      <c r="Q264" s="6">
         <v>16</v>
       </c>
       <c r="R264" s="2" t="s">
@@ -22903,11 +22935,11 @@
       <c r="E265">
         <v>0</v>
       </c>
-      <c r="F265" s="11">
+      <c r="F265" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G265" s="10">
+      <c r="G265" s="8">
         <v>140</v>
       </c>
       <c r="H265">
@@ -22937,7 +22969,7 @@
       <c r="P265">
         <v>255</v>
       </c>
-      <c r="Q265" s="7">
+      <c r="Q265" s="6">
         <v>2</v>
       </c>
       <c r="R265" s="2" t="s">
@@ -22987,11 +23019,11 @@
       <c r="E266">
         <v>76</v>
       </c>
-      <c r="F266" s="11">
+      <c r="F266" s="9">
         <f t="shared" si="4"/>
         <v>121</v>
       </c>
-      <c r="G266" s="10">
+      <c r="G266" s="8">
         <v>316</v>
       </c>
       <c r="H266">
@@ -23021,7 +23053,7 @@
       <c r="P266">
         <v>243</v>
       </c>
-      <c r="Q266" s="7">
+      <c r="Q266" s="6">
         <v>220</v>
       </c>
       <c r="R266" s="2" t="s">
@@ -23071,11 +23103,11 @@
       <c r="E267">
         <v>0</v>
       </c>
-      <c r="F267" s="11">
+      <c r="F267" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G267" s="10">
+      <c r="G267" s="8">
         <v>256</v>
       </c>
       <c r="H267">
@@ -23105,7 +23137,7 @@
       <c r="P267">
         <v>255</v>
       </c>
-      <c r="Q267" s="7">
+      <c r="Q267" s="6">
         <v>19</v>
       </c>
       <c r="R267" s="2" t="s">
@@ -23155,11 +23187,11 @@
       <c r="E268">
         <v>0</v>
       </c>
-      <c r="F268" s="11">
+      <c r="F268" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G268" s="10">
+      <c r="G268" s="8">
         <v>11</v>
       </c>
       <c r="H268">
@@ -23189,7 +23221,7 @@
       <c r="P268">
         <v>255</v>
       </c>
-      <c r="Q268" s="7">
+      <c r="Q268" s="6">
         <v>245</v>
       </c>
       <c r="R268" s="2" t="s">
@@ -23239,11 +23271,11 @@
       <c r="E269">
         <v>146</v>
       </c>
-      <c r="F269" s="11">
+      <c r="F269" s="9">
         <f t="shared" si="4"/>
         <v>251</v>
       </c>
-      <c r="G269" s="10">
+      <c r="G269" s="8">
         <v>1</v>
       </c>
       <c r="H269">
@@ -23273,7 +23305,7 @@
       <c r="P269">
         <v>190</v>
       </c>
-      <c r="Q269" s="7">
+      <c r="Q269" s="6">
         <v>188</v>
       </c>
       <c r="R269" s="2" t="s">
@@ -23323,11 +23355,11 @@
       <c r="E270">
         <v>0</v>
       </c>
-      <c r="F270" s="11">
+      <c r="F270" s="9">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G270" s="10">
+      <c r="G270" s="8">
         <v>1</v>
       </c>
       <c r="H270">
@@ -23357,7 +23389,7 @@
       <c r="P270">
         <v>3</v>
       </c>
-      <c r="Q270" s="7">
+      <c r="Q270" s="6">
         <v>21</v>
       </c>
       <c r="R270" s="2" t="s">
@@ -23407,11 +23439,11 @@
       <c r="E271">
         <v>1</v>
       </c>
-      <c r="F271" s="11">
+      <c r="F271" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G271" s="10">
+      <c r="G271" s="8">
         <v>12</v>
       </c>
       <c r="H271">
@@ -23441,7 +23473,7 @@
       <c r="P271">
         <v>255</v>
       </c>
-      <c r="Q271" s="7">
+      <c r="Q271" s="6">
         <v>2</v>
       </c>
       <c r="R271" s="2" t="s">
@@ -23491,11 +23523,11 @@
       <c r="E272">
         <v>93</v>
       </c>
-      <c r="F272" s="11">
+      <c r="F272" s="9">
         <f t="shared" si="4"/>
         <v>119</v>
       </c>
-      <c r="G272" s="10">
+      <c r="G272" s="8">
         <v>1</v>
       </c>
       <c r="H272">
@@ -23525,7 +23557,7 @@
       <c r="P272">
         <v>255</v>
       </c>
-      <c r="Q272" s="7">
+      <c r="Q272" s="6">
         <v>248</v>
       </c>
       <c r="R272" s="2" t="s">
@@ -23575,11 +23607,11 @@
       <c r="E273">
         <v>44</v>
       </c>
-      <c r="F273" s="11">
+      <c r="F273" s="9">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="G273" s="10">
+      <c r="G273" s="8">
         <v>151</v>
       </c>
       <c r="H273">
@@ -23609,7 +23641,7 @@
       <c r="P273">
         <v>255</v>
       </c>
-      <c r="Q273" s="7">
+      <c r="Q273" s="6">
         <v>255</v>
       </c>
       <c r="R273" s="2" t="s">
@@ -23659,11 +23691,11 @@
       <c r="E274">
         <v>174</v>
       </c>
-      <c r="F274" s="11">
+      <c r="F274" s="9">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="G274" s="10">
+      <c r="G274" s="8">
         <v>1</v>
       </c>
       <c r="H274">
@@ -23693,7 +23725,7 @@
       <c r="P274">
         <v>255</v>
       </c>
-      <c r="Q274" s="7">
+      <c r="Q274" s="6">
         <v>206</v>
       </c>
       <c r="R274" s="2" t="s">
@@ -23743,11 +23775,11 @@
       <c r="E275">
         <v>138</v>
       </c>
-      <c r="F275" s="11">
+      <c r="F275" s="9">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="G275" s="10">
+      <c r="G275" s="8">
         <v>136</v>
       </c>
       <c r="H275">
@@ -23777,7 +23809,7 @@
       <c r="P275">
         <v>255</v>
       </c>
-      <c r="Q275" s="7">
+      <c r="Q275" s="6">
         <v>254</v>
       </c>
       <c r="R275" s="2" t="s">
@@ -23827,11 +23859,11 @@
       <c r="E276">
         <v>0</v>
       </c>
-      <c r="F276" s="11">
+      <c r="F276" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G276" s="10">
+      <c r="G276" s="8">
         <v>511.00000000000006</v>
       </c>
       <c r="H276">
@@ -23861,7 +23893,7 @@
       <c r="P276">
         <v>255</v>
       </c>
-      <c r="Q276" s="7">
+      <c r="Q276" s="6">
         <v>1</v>
       </c>
       <c r="R276" s="2" t="s">
@@ -23911,11 +23943,11 @@
       <c r="E277">
         <v>8314</v>
       </c>
-      <c r="F277" s="11">
+      <c r="F277" s="9">
         <f t="shared" si="4"/>
         <v>62854</v>
       </c>
-      <c r="G277" s="10">
+      <c r="G277" s="8">
         <v>4</v>
       </c>
       <c r="H277">
@@ -23945,7 +23977,7 @@
       <c r="P277">
         <v>255</v>
       </c>
-      <c r="Q277" s="7">
+      <c r="Q277" s="6">
         <v>252</v>
       </c>
       <c r="R277" s="2" t="s">
@@ -23995,11 +24027,11 @@
       <c r="E278">
         <v>50</v>
       </c>
-      <c r="F278" s="11">
+      <c r="F278" s="9">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="G278" s="10">
+      <c r="G278" s="8">
         <v>293</v>
       </c>
       <c r="H278">
@@ -24029,7 +24061,7 @@
       <c r="P278">
         <v>255</v>
       </c>
-      <c r="Q278" s="7">
+      <c r="Q278" s="6">
         <v>255</v>
       </c>
       <c r="R278" s="2" t="s">
@@ -24079,11 +24111,11 @@
       <c r="E279">
         <v>15</v>
       </c>
-      <c r="F279" s="11">
+      <c r="F279" s="9">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="G279" s="10">
+      <c r="G279" s="8">
         <v>1</v>
       </c>
       <c r="H279">
@@ -24113,7 +24145,7 @@
       <c r="P279">
         <v>255</v>
       </c>
-      <c r="Q279" s="7">
+      <c r="Q279" s="6">
         <v>44</v>
       </c>
       <c r="R279" s="2" t="s">
@@ -24163,11 +24195,11 @@
       <c r="E280">
         <v>52</v>
       </c>
-      <c r="F280" s="11">
+      <c r="F280" s="9">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="G280" s="10">
+      <c r="G280" s="8">
         <v>426.99999999999994</v>
       </c>
       <c r="H280">
@@ -24197,7 +24229,7 @@
       <c r="P280">
         <v>255</v>
       </c>
-      <c r="Q280" s="7">
+      <c r="Q280" s="6">
         <v>255</v>
       </c>
       <c r="R280" s="2" t="s">
@@ -24247,11 +24279,11 @@
       <c r="E281">
         <v>109</v>
       </c>
-      <c r="F281" s="11">
+      <c r="F281" s="9">
         <f t="shared" si="4"/>
         <v>133</v>
       </c>
-      <c r="G281" s="10">
+      <c r="G281" s="8">
         <v>4</v>
       </c>
       <c r="H281">
@@ -24281,7 +24313,7 @@
       <c r="P281">
         <v>75</v>
       </c>
-      <c r="Q281" s="7">
+      <c r="Q281" s="6">
         <v>85</v>
       </c>
       <c r="R281" s="2" t="s">
@@ -24331,11 +24363,11 @@
       <c r="E282">
         <v>1</v>
       </c>
-      <c r="F282" s="11">
+      <c r="F282" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G282" s="10">
+      <c r="G282" s="8">
         <v>25</v>
       </c>
       <c r="H282">
@@ -24365,7 +24397,7 @@
       <c r="P282">
         <v>255</v>
       </c>
-      <c r="Q282" s="7">
+      <c r="Q282" s="6">
         <v>1</v>
       </c>
       <c r="R282" s="2" t="s">
@@ -24415,11 +24447,11 @@
       <c r="E283">
         <v>593</v>
       </c>
-      <c r="F283" s="11">
+      <c r="F283" s="9">
         <f t="shared" si="4"/>
         <v>751</v>
       </c>
-      <c r="G283" s="10">
+      <c r="G283" s="8">
         <v>1</v>
       </c>
       <c r="H283">
@@ -24449,7 +24481,7 @@
       <c r="P283">
         <v>255</v>
       </c>
-      <c r="Q283" s="7">
+      <c r="Q283" s="6">
         <v>103</v>
       </c>
       <c r="R283" s="2" t="s">
@@ -24499,11 +24531,11 @@
       <c r="E284">
         <v>0</v>
       </c>
-      <c r="F284" s="11">
+      <c r="F284" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G284" s="10">
+      <c r="G284" s="8">
         <v>101</v>
       </c>
       <c r="H284">
@@ -24533,7 +24565,7 @@
       <c r="P284">
         <v>255</v>
       </c>
-      <c r="Q284" s="7">
+      <c r="Q284" s="6">
         <v>255</v>
       </c>
       <c r="R284" s="2" t="s">
@@ -24583,11 +24615,11 @@
       <c r="E285">
         <v>0</v>
       </c>
-      <c r="F285" s="11">
+      <c r="F285" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G285" s="10">
+      <c r="G285" s="8">
         <v>509</v>
       </c>
       <c r="H285">
@@ -24617,7 +24649,7 @@
       <c r="P285">
         <v>255</v>
       </c>
-      <c r="Q285" s="7">
+      <c r="Q285" s="6">
         <v>1</v>
       </c>
       <c r="R285" s="2" t="s">
@@ -24667,11 +24699,11 @@
       <c r="E286">
         <v>93</v>
       </c>
-      <c r="F286" s="11">
+      <c r="F286" s="9">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="G286" s="10">
+      <c r="G286" s="8">
         <v>1</v>
       </c>
       <c r="H286">
@@ -24701,7 +24733,7 @@
       <c r="P286">
         <v>200</v>
       </c>
-      <c r="Q286" s="7">
+      <c r="Q286" s="6">
         <v>181</v>
       </c>
       <c r="R286" s="2" t="s">
@@ -24751,11 +24783,11 @@
       <c r="E287">
         <v>157</v>
       </c>
-      <c r="F287" s="11">
+      <c r="F287" s="9">
         <f t="shared" si="4"/>
         <v>183</v>
       </c>
-      <c r="G287" s="10">
+      <c r="G287" s="8">
         <v>1</v>
       </c>
       <c r="H287">
@@ -24785,7 +24817,7 @@
       <c r="P287">
         <v>246</v>
       </c>
-      <c r="Q287" s="7">
+      <c r="Q287" s="6">
         <v>125</v>
       </c>
       <c r="R287" s="2" t="s">
@@ -24835,11 +24867,11 @@
       <c r="E288">
         <v>93</v>
       </c>
-      <c r="F288" s="11">
+      <c r="F288" s="9">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="G288" s="10">
+      <c r="G288" s="8">
         <v>1</v>
       </c>
       <c r="H288">
@@ -24869,7 +24901,7 @@
       <c r="P288">
         <v>42</v>
       </c>
-      <c r="Q288" s="7">
+      <c r="Q288" s="6">
         <v>42</v>
       </c>
       <c r="R288" s="2" t="s">
@@ -24919,11 +24951,11 @@
       <c r="E289">
         <v>141</v>
       </c>
-      <c r="F289" s="11">
+      <c r="F289" s="9">
         <f t="shared" si="4"/>
         <v>186</v>
       </c>
-      <c r="G289" s="10">
+      <c r="G289" s="8">
         <v>94</v>
       </c>
       <c r="H289">
@@ -24953,7 +24985,7 @@
       <c r="P289">
         <v>255</v>
       </c>
-      <c r="Q289" s="7">
+      <c r="Q289" s="6">
         <v>255</v>
       </c>
       <c r="R289" s="2" t="s">
@@ -25003,11 +25035,11 @@
       <c r="E290">
         <v>45</v>
       </c>
-      <c r="F290" s="11">
+      <c r="F290" s="9">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="G290" s="10">
+      <c r="G290" s="8">
         <v>2</v>
       </c>
       <c r="H290">
@@ -25037,7 +25069,7 @@
       <c r="P290">
         <v>255</v>
       </c>
-      <c r="Q290" s="7">
+      <c r="Q290" s="6">
         <v>224</v>
       </c>
       <c r="R290" s="2" t="s">
@@ -25087,11 +25119,11 @@
       <c r="E291">
         <v>0</v>
       </c>
-      <c r="F291" s="11">
+      <c r="F291" s="9">
         <f t="shared" si="4"/>
         <v>1032</v>
       </c>
-      <c r="G291" s="10">
+      <c r="G291" s="8">
         <v>73</v>
       </c>
       <c r="H291">
@@ -25121,7 +25153,7 @@
       <c r="P291">
         <v>255</v>
       </c>
-      <c r="Q291" s="7">
+      <c r="Q291" s="6">
         <v>255</v>
       </c>
       <c r="R291" s="2" t="s">
@@ -25171,11 +25203,11 @@
       <c r="E292">
         <v>0</v>
       </c>
-      <c r="F292" s="11">
+      <c r="F292" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G292" s="10">
+      <c r="G292" s="8">
         <v>137</v>
       </c>
       <c r="H292">
@@ -25205,7 +25237,7 @@
       <c r="P292">
         <v>255</v>
       </c>
-      <c r="Q292" s="7">
+      <c r="Q292" s="6">
         <v>6</v>
       </c>
       <c r="R292" s="2" t="s">
@@ -25255,11 +25287,11 @@
       <c r="E293">
         <v>0</v>
       </c>
-      <c r="F293" s="11">
+      <c r="F293" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G293" s="10">
+      <c r="G293" s="8">
         <v>113.99999999999999</v>
       </c>
       <c r="H293">
@@ -25289,7 +25321,7 @@
       <c r="P293">
         <v>255</v>
       </c>
-      <c r="Q293" s="7">
+      <c r="Q293" s="6">
         <v>255</v>
       </c>
       <c r="R293" s="2" t="s">
@@ -25339,11 +25371,11 @@
       <c r="E294">
         <v>45</v>
       </c>
-      <c r="F294" s="11">
+      <c r="F294" s="9">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="G294" s="10">
+      <c r="G294" s="8">
         <v>132</v>
       </c>
       <c r="H294">
@@ -25373,7 +25405,7 @@
       <c r="P294">
         <v>255</v>
       </c>
-      <c r="Q294" s="7">
+      <c r="Q294" s="6">
         <v>224</v>
       </c>
       <c r="R294" s="2" t="s">
@@ -25423,11 +25455,11 @@
       <c r="E295">
         <v>0</v>
       </c>
-      <c r="F295" s="11">
+      <c r="F295" s="9">
         <f t="shared" si="4"/>
         <v>1032</v>
       </c>
-      <c r="G295" s="10">
+      <c r="G295" s="8">
         <v>235</v>
       </c>
       <c r="H295">
@@ -25457,7 +25489,7 @@
       <c r="P295">
         <v>255</v>
       </c>
-      <c r="Q295" s="7">
+      <c r="Q295" s="6">
         <v>255</v>
       </c>
       <c r="R295" s="2" t="s">
@@ -25507,11 +25539,11 @@
       <c r="E296">
         <v>293</v>
       </c>
-      <c r="F296" s="11">
+      <c r="F296" s="9">
         <f t="shared" si="4"/>
         <v>2892</v>
       </c>
-      <c r="G296" s="10">
+      <c r="G296" s="8">
         <v>1</v>
       </c>
       <c r="H296">
@@ -25541,7 +25573,7 @@
       <c r="P296">
         <v>255</v>
       </c>
-      <c r="Q296" s="7">
+      <c r="Q296" s="6">
         <v>247</v>
       </c>
       <c r="R296" s="2" t="s">
